--- a/1_calculation_scripts/1_8_cf4/results/mie_results_vle_sle_sve_fluid.xlsx
+++ b/1_calculation_scripts/1_8_cf4/results/mie_results_vle_sle_sve_fluid.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>lambda_r</t>
   </si>
@@ -77,7 +77,13 @@
     <t>tcondl_vle_model</t>
   </si>
   <si>
+    <t>tcondl_vle_model_ann</t>
+  </si>
+  <si>
     <t>speed_of_sound_liq_vle_model</t>
+  </si>
+  <si>
+    <t>tcondl_vle_model_vib</t>
   </si>
 </sst>
 </file>
@@ -478,13 +484,13 @@
         <v>1.264197530864197</v>
       </c>
       <c r="D2">
-        <v>279.1222429151819</v>
+        <v>279.122242915182</v>
       </c>
       <c r="E2">
-        <v>2645027.791148538</v>
+        <v>2645027.791148542</v>
       </c>
       <c r="F2">
-        <v>3363.005928616437</v>
+        <v>3363.00592861644</v>
       </c>
       <c r="G2">
         <v>5.392780443341428</v>
@@ -500,13 +506,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -546,8 +552,14 @@
       <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>61.50409565064124</v>
       </c>
@@ -585,10 +597,16 @@
         <v>0.03556686842136834</v>
       </c>
       <c r="M2">
+        <v>0.03556428742872191</v>
+      </c>
+      <c r="N2">
         <v>943.4823161980545</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="O2">
+        <v>2.58099264642585E-06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>63.70223056015752</v>
       </c>
@@ -626,10 +644,16 @@
         <v>0.03558103299999292</v>
       </c>
       <c r="M3">
+        <v>0.03557833750662663</v>
+      </c>
+      <c r="N3">
         <v>847.2697951528903</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="O3">
+        <v>2.695493366292585E-06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>65.9003654696738</v>
       </c>
@@ -667,21 +691,27 @@
         <v>0.03561347637169812</v>
       </c>
       <c r="M4">
+        <v>0.03561063701220958</v>
+      </c>
+      <c r="N4">
         <v>792.1474769121676</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="O4">
+        <v>2.839359488542402E-06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
-        <v>68.09850037919007</v>
+        <v>68.09850037919009</v>
       </c>
       <c r="B5">
-        <v>0.5734730859054948</v>
+        <v>0.573473085905436</v>
       </c>
       <c r="C5">
-        <v>0.001012843773148268</v>
+        <v>0.001012843773148164</v>
       </c>
       <c r="D5">
-        <v>10881.19329654144</v>
+        <v>10881.19329654143</v>
       </c>
       <c r="E5">
         <v>13359.2181250765</v>
@@ -690,36 +720,42 @@
         <v>12793.01724934536</v>
       </c>
       <c r="G5">
-        <v>47.72153156212401</v>
+        <v>47.72153156212402</v>
       </c>
       <c r="H5">
-        <v>99.39191520168225</v>
+        <v>99.3919152016821</v>
       </c>
       <c r="I5">
-        <v>3.320508019680091E-09</v>
+        <v>3.320508019680099E-09</v>
       </c>
       <c r="J5">
-        <v>6.028803349850414E-10</v>
+        <v>6.028803349850426E-10</v>
       </c>
       <c r="K5">
-        <v>0.0009362974616920453</v>
+        <v>0.0009362974616920435</v>
       </c>
       <c r="L5">
-        <v>0.035661752904973</v>
+        <v>0.03566175290497298</v>
       </c>
       <c r="M5">
-        <v>756.6214857042787</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.03565873360285575</v>
+      </c>
+      <c r="N5">
+        <v>756.6214857042773</v>
+      </c>
+      <c r="O5">
+        <v>3.019302117232867E-06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>70.29663528870636</v>
       </c>
       <c r="B6">
-        <v>1.192285739826707</v>
+        <v>1.192285739826694</v>
       </c>
       <c r="C6">
-        <v>0.002039923359215678</v>
+        <v>0.002039923359215656</v>
       </c>
       <c r="D6">
         <v>10752.22397468444</v>
@@ -731,7 +767,7 @@
         <v>12561.79650873865</v>
       </c>
       <c r="G6">
-        <v>49.64458711769055</v>
+        <v>49.64458711769053</v>
       </c>
       <c r="H6">
         <v>94.23253421535789</v>
@@ -749,18 +785,24 @@
         <v>0.03572437527330346</v>
       </c>
       <c r="M6">
-        <v>731.9788724756323</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.03572113216229088</v>
+      </c>
+      <c r="N6">
+        <v>731.9788724756324</v>
+      </c>
+      <c r="O6">
+        <v>3.243111012573379E-06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
-        <v>72.49477019822262</v>
+        <v>72.49477019822264</v>
       </c>
       <c r="B7">
-        <v>2.345878603924829</v>
+        <v>2.345878603924843</v>
       </c>
       <c r="C7">
-        <v>0.003891963260460429</v>
+        <v>0.003891963260460452</v>
       </c>
       <c r="D7">
         <v>10634.11843004022</v>
@@ -772,36 +814,42 @@
         <v>12342.59006254343</v>
       </c>
       <c r="G7">
-        <v>49.87751047427522</v>
+        <v>49.87751047427528</v>
       </c>
       <c r="H7">
-        <v>88.51955959572047</v>
+        <v>88.51955959572049</v>
       </c>
       <c r="I7">
-        <v>3.402817388575015E-09</v>
+        <v>3.40281738857502E-09</v>
       </c>
       <c r="J7">
-        <v>6.497203102314386E-10</v>
+        <v>6.497203102314387E-10</v>
       </c>
       <c r="K7">
-        <v>0.0009119294827677701</v>
+        <v>0.0009119294827677694</v>
       </c>
       <c r="L7">
-        <v>0.03580077336368621</v>
+        <v>0.0358007733636862</v>
       </c>
       <c r="M7">
-        <v>713.9735708225841</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.03579725355110405</v>
+      </c>
+      <c r="N7">
+        <v>713.9735708225835</v>
+      </c>
+      <c r="O7">
+        <v>3.519812582146986E-06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>74.69290510773891</v>
       </c>
       <c r="B8">
-        <v>4.393445970383735</v>
+        <v>4.393445970383739</v>
       </c>
       <c r="C8">
-        <v>0.007074549974216781</v>
+        <v>0.007074549974216787</v>
       </c>
       <c r="D8">
         <v>10525.45028691303</v>
@@ -813,36 +861,42 @@
         <v>12136.25020946052</v>
       </c>
       <c r="G8">
-        <v>48.9312933636236</v>
+        <v>48.93129336362347</v>
       </c>
       <c r="H8">
-        <v>82.56809869500242</v>
+        <v>82.56809869500228</v>
       </c>
       <c r="I8">
-        <v>3.442531035803003E-09</v>
+        <v>3.442531035803006E-09</v>
       </c>
       <c r="J8">
-        <v>6.761958877756561E-10</v>
+        <v>6.761958877756562E-10</v>
       </c>
       <c r="K8">
-        <v>0.0008839406551269031</v>
+        <v>0.0008839406551269028</v>
       </c>
       <c r="L8">
-        <v>0.0358912644285759</v>
+        <v>0.03589126442857589</v>
       </c>
       <c r="M8">
+        <v>0.03588740456612301</v>
+      </c>
+      <c r="N8">
         <v>700.2759449786623</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="O8">
+        <v>3.859862452882686E-06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>76.89104001725519</v>
       </c>
       <c r="B9">
-        <v>7.872208081088758</v>
+        <v>7.872208081088765</v>
       </c>
       <c r="C9">
-        <v>0.01231397952446022</v>
+        <v>0.01231397952446023</v>
       </c>
       <c r="D9">
         <v>10424.99540322593</v>
@@ -854,77 +908,89 @@
         <v>11943.03321374498</v>
       </c>
       <c r="G9">
-        <v>47.19550444449662</v>
+        <v>47.19550444449663</v>
       </c>
       <c r="H9">
-        <v>76.6079290075814</v>
+        <v>76.60792900758142</v>
       </c>
       <c r="I9">
-        <v>3.482193703205812E-09</v>
+        <v>3.482193703205808E-09</v>
       </c>
       <c r="J9">
-        <v>7.051742287020411E-10</v>
+        <v>7.051742287020404E-10</v>
       </c>
       <c r="K9">
-        <v>0.0008459074074609173</v>
+        <v>0.0008459074074609178</v>
       </c>
       <c r="L9">
         <v>0.03599701163317536</v>
       </c>
       <c r="M9">
-        <v>689.4967384992545</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.03599273625685309</v>
+      </c>
+      <c r="N9">
+        <v>689.4967384992548</v>
+      </c>
+      <c r="O9">
+        <v>4.275376322272279E-06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
-        <v>79.08917492677146</v>
+        <v>79.08917492677148</v>
       </c>
       <c r="B10">
-        <v>13.55594062944313</v>
+        <v>13.55594062944317</v>
       </c>
       <c r="C10">
-        <v>0.02061566488292287</v>
+        <v>0.02061566488292293</v>
       </c>
       <c r="D10">
         <v>10331.7002454635</v>
       </c>
       <c r="E10">
-        <v>12420.32183252072</v>
+        <v>12420.32183252071</v>
       </c>
       <c r="F10">
         <v>11762.76779983061</v>
       </c>
       <c r="G10">
-        <v>44.96223044206443</v>
+        <v>44.96223044206445</v>
       </c>
       <c r="H10">
-        <v>70.80056718259496</v>
+        <v>70.80056718259495</v>
       </c>
       <c r="I10">
-        <v>3.522380438359307E-09</v>
+        <v>3.522380438359302E-09</v>
       </c>
       <c r="J10">
         <v>7.370386152072221E-10</v>
       </c>
       <c r="K10">
-        <v>0.0007990870141011225</v>
+        <v>0.0007990870141011236</v>
       </c>
       <c r="L10">
         <v>0.03611994679768396</v>
       </c>
       <c r="M10">
-        <v>680.7545755513198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.0361151663977105</v>
+      </c>
+      <c r="N10">
+        <v>680.75457555132</v>
+      </c>
+      <c r="O10">
+        <v>4.780399973460574E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
-        <v>81.28730983628775</v>
+        <v>81.28730983628776</v>
       </c>
       <c r="B11">
-        <v>22.52265427517399</v>
+        <v>22.52265427517421</v>
       </c>
       <c r="C11">
-        <v>0.03332667568131623</v>
+        <v>0.03332667568131656</v>
       </c>
       <c r="D11">
         <v>10244.65559261048</v>
@@ -933,19 +999,19 @@
         <v>12270.80035160058</v>
       </c>
       <c r="F11">
-        <v>11594.98794166511</v>
+        <v>11594.9879416651</v>
       </c>
       <c r="G11">
-        <v>42.44687861904728</v>
+        <v>42.4468786190473</v>
       </c>
       <c r="H11">
-        <v>65.25451940124603</v>
+        <v>65.254519401246</v>
       </c>
       <c r="I11">
-        <v>3.563588774025314E-09</v>
+        <v>3.563588774025317E-09</v>
       </c>
       <c r="J11">
-        <v>7.721992142981188E-10</v>
+        <v>7.721992142981203E-10</v>
       </c>
       <c r="K11">
         <v>0.0007455208434600711</v>
@@ -954,18 +1020,24 @@
         <v>0.03626263464385035</v>
       </c>
       <c r="M11">
-        <v>673.4629759308937</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.03625724342846999</v>
+      </c>
+      <c r="N11">
+        <v>673.4629759308933</v>
+      </c>
+      <c r="O11">
+        <v>5.391215380361473E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
-        <v>83.48544474580402</v>
+        <v>83.48544474580403</v>
       </c>
       <c r="B12">
-        <v>36.23054667913676</v>
+        <v>36.23054667913668</v>
       </c>
       <c r="C12">
-        <v>0.05220043685919458</v>
+        <v>0.05220043685919445</v>
       </c>
       <c r="D12">
         <v>10163.07460954</v>
@@ -977,36 +1049,42 @@
         <v>11439.03473760547</v>
       </c>
       <c r="G12">
-        <v>39.80549366718402</v>
+        <v>39.80549366718397</v>
       </c>
       <c r="H12">
-        <v>60.03811650299015</v>
+        <v>60.03811650299007</v>
       </c>
       <c r="I12">
-        <v>3.606247365920635E-09</v>
+        <v>3.606247365920641E-09</v>
       </c>
       <c r="J12">
-        <v>8.110909746288099E-10</v>
+        <v>8.110909746288114E-10</v>
       </c>
       <c r="K12">
-        <v>0.0006878803688229237</v>
+        <v>0.0006878803688229228</v>
       </c>
       <c r="L12">
-        <v>0.0364280623712732</v>
+        <v>0.03642806237127319</v>
       </c>
       <c r="M12">
-        <v>667.2167123591776</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.03642193569660428</v>
+      </c>
+      <c r="N12">
+        <v>667.2167123591771</v>
+      </c>
+      <c r="O12">
+        <v>6.126674668906942E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
-        <v>85.6835796553203</v>
+        <v>85.68357965532032</v>
       </c>
       <c r="B13">
-        <v>56.60096904486042</v>
+        <v>56.60096904485965</v>
       </c>
       <c r="C13">
-        <v>0.0794615108999247</v>
+        <v>0.07946151089992362</v>
       </c>
       <c r="D13">
         <v>10086.27452031817</v>
@@ -1018,13 +1096,13 @@
         <v>11294.13279607055</v>
       </c>
       <c r="G13">
-        <v>37.14875482862765</v>
+        <v>37.14875482862757</v>
       </c>
       <c r="H13">
-        <v>55.18989521277533</v>
+        <v>55.18989521277526</v>
       </c>
       <c r="I13">
-        <v>3.650725109788593E-09</v>
+        <v>3.65072510978859E-09</v>
       </c>
       <c r="J13">
         <v>8.54169502403184E-10</v>
@@ -1033,18 +1111,24 @@
         <v>0.0006291031062487355</v>
       </c>
       <c r="L13">
-        <v>0.03661935093145009</v>
+        <v>0.0366193509314501</v>
       </c>
       <c r="M13">
-        <v>661.7272226331004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.03661234238404215</v>
+      </c>
+      <c r="N13">
+        <v>661.7272226331006</v>
+      </c>
+      <c r="O13">
+        <v>7.008547407948644E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>87.88171456483659</v>
       </c>
       <c r="B14">
-        <v>86.10683903254218</v>
+        <v>86.10683903254217</v>
       </c>
       <c r="C14">
         <v>0.1178684134757076</v>
@@ -1077,21 +1161,27 @@
         <v>0.03683940123851036</v>
       </c>
       <c r="M14">
+        <v>0.03683133937887266</v>
+      </c>
+      <c r="N14">
         <v>656.7839826915859</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="O14">
+        <v>8.061859637695855E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
-        <v>90.07984947435286</v>
+        <v>90.07984947435287</v>
       </c>
       <c r="B15">
-        <v>127.8647104712509</v>
+        <v>127.8647104712513</v>
       </c>
       <c r="C15">
-        <v>0.1707725578793286</v>
+        <v>0.170772557879329</v>
       </c>
       <c r="D15">
-        <v>9944.71654843772</v>
+        <v>9944.716548437716</v>
       </c>
       <c r="E15">
         <v>11782.84911207025</v>
@@ -1100,51 +1190,57 @@
         <v>11034.1192436535</v>
       </c>
       <c r="G15">
-        <v>32.06914222183261</v>
+        <v>32.06914222183265</v>
       </c>
       <c r="H15">
         <v>46.65027278104085</v>
       </c>
       <c r="I15">
-        <v>3.746368459343038E-09</v>
+        <v>3.746368459343046E-09</v>
       </c>
       <c r="J15">
-        <v>9.547711362623322E-10</v>
+        <v>9.54771136262333E-10</v>
       </c>
       <c r="K15">
-        <v>0.0005184522701058956</v>
+        <v>0.000518452270105894</v>
       </c>
       <c r="L15">
         <v>0.03709050547663466</v>
       </c>
       <c r="M15">
-        <v>652.2304187717214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.03708119028075123</v>
+      </c>
+      <c r="N15">
+        <v>652.2304187717207</v>
+      </c>
+      <c r="O15">
+        <v>9.315195883431183E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
-        <v>92.27798438386912</v>
+        <v>92.27798438386915</v>
       </c>
       <c r="B16">
-        <v>185.7285649881854</v>
+        <v>185.7285649881864</v>
       </c>
       <c r="C16">
-        <v>0.2421716435264452</v>
+        <v>0.2421716435264463</v>
       </c>
       <c r="D16">
         <v>9878.987115980701</v>
       </c>
       <c r="E16">
-        <v>11684.21429210876</v>
+        <v>11684.21429210875</v>
       </c>
       <c r="F16">
-        <v>10917.303643924</v>
+        <v>10917.30364392399</v>
       </c>
       <c r="G16">
-        <v>29.72877425020333</v>
+        <v>29.7287742502033</v>
       </c>
       <c r="H16">
-        <v>42.9514039746215</v>
+        <v>42.95140397462146</v>
       </c>
       <c r="I16">
         <v>3.798051571652136E-09</v>
@@ -1153,24 +1249,30 @@
         <v>1.013237601500325E-09</v>
       </c>
       <c r="K16">
-        <v>0.0004700030502415683</v>
+        <v>0.000470003050241568</v>
       </c>
       <c r="L16">
         <v>0.03737396459062434</v>
       </c>
       <c r="M16">
-        <v>647.9483490917409</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.03736316366127747</v>
+      </c>
+      <c r="N16">
+        <v>647.9483490917406</v>
+      </c>
+      <c r="O16">
+        <v>1.080092934687894E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
-        <v>94.47611929338541</v>
+        <v>94.47611929338542</v>
       </c>
       <c r="B17">
-        <v>264.3833347815151</v>
+        <v>264.3833347815162</v>
       </c>
       <c r="C17">
-        <v>0.3367560958378502</v>
+        <v>0.3367560958378515</v>
       </c>
       <c r="D17">
         <v>9816.075483200155</v>
@@ -1182,36 +1284,42 @@
         <v>10808.17860757906</v>
       </c>
       <c r="G17">
-        <v>27.54981712114135</v>
+        <v>27.54981712114134</v>
       </c>
       <c r="H17">
-        <v>39.61409909002568</v>
+        <v>39.61409909002565</v>
       </c>
       <c r="I17">
-        <v>3.852603716431205E-09</v>
+        <v>3.852603716431203E-09</v>
       </c>
       <c r="J17">
         <v>1.077752035609946E-09</v>
       </c>
       <c r="K17">
-        <v>0.0004270929476891108</v>
+        <v>0.0004270929476891102</v>
       </c>
       <c r="L17">
-        <v>0.03768975379137367</v>
+        <v>0.0376897537913737</v>
       </c>
       <c r="M17">
-        <v>643.8476259684479</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.03767719844938397</v>
+      </c>
+      <c r="N17">
+        <v>643.847625968448</v>
+      </c>
+      <c r="O17">
+        <v>1.255534198972349E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
-        <v>96.67425420290169</v>
+        <v>96.67425420290171</v>
       </c>
       <c r="B18">
-        <v>369.4361847178067</v>
+        <v>369.4361847178076</v>
       </c>
       <c r="C18">
-        <v>0.4599474918839294</v>
+        <v>0.4599474918839304</v>
       </c>
       <c r="D18">
         <v>9755.632264313977</v>
@@ -1223,36 +1331,42 @@
         <v>10705.96270491805</v>
       </c>
       <c r="G18">
-        <v>25.54011059501055</v>
+        <v>25.54011059501054</v>
       </c>
       <c r="H18">
-        <v>36.61790018536036</v>
+        <v>36.61790018536033</v>
       </c>
       <c r="I18">
-        <v>3.910217981664893E-09</v>
+        <v>3.910217981664889E-09</v>
       </c>
       <c r="J18">
         <v>1.148726557355394E-09</v>
       </c>
       <c r="K18">
-        <v>0.0003896413395830348</v>
+        <v>0.0003896413395830346</v>
       </c>
       <c r="L18">
-        <v>0.0380362679904258</v>
+        <v>0.03803626799042582</v>
       </c>
       <c r="M18">
-        <v>639.8590488368823</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.03802164939336749</v>
+      </c>
+      <c r="N18">
+        <v>639.8590488368825</v>
+      </c>
+      <c r="O18">
+        <v>1.461859705832992E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
-        <v>98.87238911241796</v>
+        <v>98.87238911241798</v>
       </c>
       <c r="B19">
-        <v>507.5036723567608</v>
+        <v>507.5036723567628</v>
       </c>
       <c r="C19">
-        <v>0.6179282533751431</v>
+        <v>0.6179282533751453</v>
       </c>
       <c r="D19">
         <v>9697.349606430143</v>
@@ -1264,36 +1378,42 @@
         <v>10609.92138035592</v>
       </c>
       <c r="G19">
-        <v>23.70039106626615</v>
+        <v>23.70039106626612</v>
       </c>
       <c r="H19">
-        <v>33.93986253611296</v>
+        <v>33.93986253611293</v>
       </c>
       <c r="I19">
-        <v>3.971071748576708E-09</v>
+        <v>3.971071748576711E-09</v>
       </c>
       <c r="J19">
-        <v>1.226521139697028E-09</v>
+        <v>1.226521139697031E-09</v>
       </c>
       <c r="K19">
-        <v>0.0003571995679165329</v>
+        <v>0.0003571995679165321</v>
       </c>
       <c r="L19">
-        <v>0.03841016307990204</v>
+        <v>0.03841016307990205</v>
       </c>
       <c r="M19">
-        <v>635.9293866725243</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.03839312854670907</v>
+      </c>
+      <c r="N19">
+        <v>635.9293866725241</v>
+      </c>
+      <c r="O19">
+        <v>1.703453319297457E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
-        <v>101.0705240219342</v>
+        <v>101.0705240219343</v>
       </c>
       <c r="B20">
-        <v>686.2930557308206</v>
+        <v>686.2930557308108</v>
       </c>
       <c r="C20">
-        <v>0.8176622356695913</v>
+        <v>0.8176622356695794</v>
       </c>
       <c r="D20">
         <v>9640.955621094021</v>
@@ -1302,10 +1422,10 @@
         <v>11358.63524245906</v>
       </c>
       <c r="F20">
-        <v>10519.37078777225</v>
+        <v>10519.37078777224</v>
       </c>
       <c r="G20">
-        <v>22.02648759231848</v>
+        <v>22.02648759231849</v>
       </c>
       <c r="H20">
         <v>31.55593366089025</v>
@@ -1317,24 +1437,30 @@
         <v>1.311428068884077E-09</v>
       </c>
       <c r="K20">
-        <v>0.0003291525640971565</v>
+        <v>0.0003291525640971561</v>
       </c>
       <c r="L20">
         <v>0.03880629420127701</v>
       </c>
       <c r="M20">
-        <v>632.0177886469291</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.03878644393897063</v>
+      </c>
+      <c r="N20">
+        <v>632.017788646929</v>
+      </c>
+      <c r="O20">
+        <v>1.985026230637904E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
-        <v>103.2686589314505</v>
+        <v>103.2686589314506</v>
       </c>
       <c r="B21">
-        <v>914.6762194991653</v>
+        <v>914.676219499171</v>
       </c>
       <c r="C21">
-        <v>1.066906172378548</v>
+        <v>1.066906172378555</v>
       </c>
       <c r="D21">
         <v>9586.209639990382</v>
@@ -1346,36 +1472,42 @@
         <v>10433.67907565047</v>
       </c>
       <c r="G21">
-        <v>20.51096268400507</v>
+        <v>20.51096268400504</v>
       </c>
       <c r="H21">
-        <v>29.44192974919768</v>
+        <v>29.44192974919766</v>
       </c>
       <c r="I21">
-        <v>4.103156317676157E-09</v>
+        <v>4.103156317676154E-09</v>
       </c>
       <c r="J21">
-        <v>1.403658575795867E-09</v>
+        <v>1.403658575795869E-09</v>
       </c>
       <c r="K21">
-        <v>0.0003048572656826888</v>
+        <v>0.0003048572656826889</v>
       </c>
       <c r="L21">
-        <v>0.03921774499473032</v>
+        <v>0.03921774499473035</v>
       </c>
       <c r="M21">
-        <v>628.0931248871955</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.03919462942245792</v>
+      </c>
+      <c r="N21">
+        <v>628.0931248871957</v>
+      </c>
+      <c r="O21">
+        <v>2.311557227243119E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>105.4667938409668</v>
       </c>
       <c r="B22">
-        <v>1202.754928014378</v>
+        <v>1202.75492801438</v>
       </c>
       <c r="C22">
-        <v>1.374212236548692</v>
+        <v>1.374212236548694</v>
       </c>
       <c r="D22">
         <v>9532.898161599531</v>
@@ -1390,7 +1522,7 @@
         <v>19.14432963457241</v>
       </c>
       <c r="H22">
-        <v>27.57421167963575</v>
+        <v>27.57421167963576</v>
       </c>
       <c r="I22">
         <v>4.174702471260091E-09</v>
@@ -1399,65 +1531,77 @@
         <v>1.503333128585553E-09</v>
       </c>
       <c r="K22">
-        <v>0.0002837196647711419</v>
+        <v>0.000283719664771142</v>
       </c>
       <c r="L22">
-        <v>0.03963594445620774</v>
+        <v>0.03963594445620775</v>
       </c>
       <c r="M22">
+        <v>0.03960906229831389</v>
+      </c>
+      <c r="N22">
         <v>624.1319621428734</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="O22">
+        <v>2.688215789385512E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>107.6649287504831</v>
       </c>
       <c r="B23">
-        <v>1561.916376016023</v>
+        <v>1561.916376016037</v>
       </c>
       <c r="C23">
-        <v>1.748922241137141</v>
+        <v>1.748922241137156</v>
       </c>
       <c r="D23">
-        <v>9480.831378432122</v>
+        <v>9480.83137843212</v>
       </c>
       <c r="E23">
-        <v>11167.5095858359</v>
+        <v>11167.50958583589</v>
       </c>
       <c r="F23">
         <v>10274.60067673559</v>
       </c>
       <c r="G23">
-        <v>17.91594733387214</v>
+        <v>17.91594733387215</v>
       </c>
       <c r="H23">
-        <v>25.93013787362887</v>
+        <v>25.93013787362888</v>
       </c>
       <c r="I23">
-        <v>4.250125318178326E-09</v>
+        <v>4.250125318178332E-09</v>
       </c>
       <c r="J23">
-        <v>1.610476616496899E-09</v>
+        <v>1.610476616496903E-09</v>
       </c>
       <c r="K23">
-        <v>0.0002652270148179947</v>
+        <v>0.000265227014817994</v>
       </c>
       <c r="L23">
-        <v>0.0400508772976924</v>
+        <v>0.04005087729769239</v>
       </c>
       <c r="M23">
-        <v>620.1169829827492</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.04001967457175675</v>
+      </c>
+      <c r="N23">
+        <v>620.1169829827487</v>
+      </c>
+      <c r="O23">
+        <v>3.120272593563673E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
-        <v>109.8630636599993</v>
+        <v>109.8630636599994</v>
       </c>
       <c r="B24">
-        <v>2004.878281498256</v>
+        <v>2004.878281498259</v>
       </c>
       <c r="C24">
-        <v>2.201154216784891</v>
+        <v>2.201154216784893</v>
       </c>
       <c r="D24">
         <v>9429.840193285791</v>
@@ -1472,71 +1616,83 @@
         <v>16.81466971560106</v>
       </c>
       <c r="H24">
-        <v>24.48835213490262</v>
+        <v>24.48835213490261</v>
       </c>
       <c r="I24">
-        <v>4.32958245817516E-09</v>
+        <v>4.329582458175162E-09</v>
       </c>
       <c r="J24">
-        <v>1.725019165724465E-09</v>
+        <v>1.725019165724468E-09</v>
       </c>
       <c r="K24">
-        <v>0.0002489530733690481</v>
+        <v>0.0002489530733690478</v>
       </c>
       <c r="L24">
-        <v>0.04045140260319458</v>
+        <v>0.04045140260319457</v>
       </c>
       <c r="M24">
-        <v>616.0357243906802</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.04041527256536315</v>
+      </c>
+      <c r="N24">
+        <v>616.0357243906799</v>
+      </c>
+      <c r="O24">
+        <v>3.613003783142094E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
-        <v>112.0611985695156</v>
+        <v>112.0611985695157</v>
       </c>
       <c r="B25">
-        <v>2545.7230390976</v>
+        <v>2545.723039097608</v>
       </c>
       <c r="C25">
-        <v>2.741782270279091</v>
+        <v>2.741782270279099</v>
       </c>
       <c r="D25">
-        <v>9379.773648475295</v>
+        <v>9379.773648475291</v>
       </c>
       <c r="E25">
         <v>11056.84613588914</v>
       </c>
       <c r="F25">
-        <v>10128.62549209075</v>
+        <v>10128.62549209074</v>
       </c>
       <c r="G25">
         <v>15.82930880538324</v>
       </c>
       <c r="H25">
-        <v>23.22895019935944</v>
+        <v>23.22895019935947</v>
       </c>
       <c r="I25">
-        <v>4.413235896852993E-09</v>
+        <v>4.413235896853004E-09</v>
       </c>
       <c r="J25">
-        <v>1.846802681178754E-09</v>
+        <v>1.846802681178757E-09</v>
       </c>
       <c r="K25">
-        <v>0.000234549993613015</v>
+        <v>0.0002345499936130145</v>
       </c>
       <c r="L25">
         <v>0.04082569636084506</v>
       </c>
       <c r="M25">
-        <v>611.8795552615195</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>0.04078398039779461</v>
+      </c>
+      <c r="N25">
+        <v>611.879555261519</v>
+      </c>
+      <c r="O25">
+        <v>4.171596305044091E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26">
-        <v>114.2593334790319</v>
+        <v>114.259333479032</v>
       </c>
       <c r="B26">
-        <v>3199.92071587762</v>
+        <v>3199.920715877621</v>
       </c>
       <c r="C26">
         <v>3.382410742231053</v>
@@ -1554,54 +1710,60 @@
         <v>14.94895652356949</v>
       </c>
       <c r="H26">
-        <v>22.13355790161512</v>
+        <v>22.1335579016151</v>
       </c>
       <c r="I26">
-        <v>4.501254056928948E-09</v>
+        <v>4.501254056928945E-09</v>
       </c>
       <c r="J26">
         <v>1.975592520349252E-09</v>
       </c>
       <c r="K26">
-        <v>0.0002217353979237034</v>
+        <v>0.0002217353979237033</v>
       </c>
       <c r="L26">
-        <v>0.04116182103614518</v>
+        <v>0.0411618210361452</v>
       </c>
       <c r="M26">
+        <v>0.04111381042139323</v>
+      </c>
+      <c r="N26">
         <v>607.6428402154678</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="O26">
+        <v>4.801061475197057E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>116.4574683885482</v>
       </c>
       <c r="B27">
-        <v>3984.340916241796</v>
+        <v>3984.340916241804</v>
       </c>
       <c r="C27">
-        <v>4.135343749724255</v>
+        <v>4.135343749724262</v>
       </c>
       <c r="D27">
         <v>9281.888317258774</v>
       </c>
       <c r="E27">
-        <v>10955.45585995332</v>
+        <v>10955.45585995331</v>
       </c>
       <c r="F27">
-        <v>9992.400302609352</v>
+        <v>9992.400302609345</v>
       </c>
       <c r="G27">
-        <v>14.16319991168805</v>
+        <v>14.16319991168804</v>
       </c>
       <c r="H27">
-        <v>21.18534577031015</v>
+        <v>21.18534577031012</v>
       </c>
       <c r="I27">
         <v>4.593813585382297E-09</v>
       </c>
       <c r="J27">
-        <v>2.111093109766186E-09</v>
+        <v>2.111093109766187E-09</v>
       </c>
       <c r="K27">
         <v>0.000210279190709651</v>
@@ -1610,21 +1772,27 @@
         <v>0.04144839973996289</v>
       </c>
       <c r="M27">
+        <v>0.04139333811259362</v>
+      </c>
+      <c r="N27">
         <v>603.3222545078861</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="O27">
+        <v>5.5061627369269E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>118.6556032980645</v>
       </c>
       <c r="B28">
-        <v>4917.253762520722</v>
+        <v>4917.253762520742</v>
       </c>
       <c r="C28">
-        <v>5.013551223485795</v>
+        <v>5.013551223485813</v>
       </c>
       <c r="D28">
-        <v>9233.839764177781</v>
+        <v>9233.839764177779</v>
       </c>
       <c r="E28">
         <v>10907.32457596447</v>
@@ -1633,77 +1801,89 @@
         <v>9927.064536655394</v>
       </c>
       <c r="G28">
-        <v>13.46225647477778</v>
+        <v>13.46225647477776</v>
       </c>
       <c r="H28">
         <v>20.36899879747216</v>
       </c>
       <c r="I28">
-        <v>4.691101008264467E-09</v>
+        <v>4.691101008264476E-09</v>
       </c>
       <c r="J28">
-        <v>2.252965921976967E-09</v>
+        <v>2.25296592197697E-09</v>
       </c>
       <c r="K28">
-        <v>0.0001999921099005507</v>
+        <v>0.0001999921099005504</v>
       </c>
       <c r="L28">
-        <v>0.04167533962738758</v>
+        <v>0.04167533962738756</v>
       </c>
       <c r="M28">
-        <v>598.9162251798084</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>0.04161242601167606</v>
+      </c>
+      <c r="N28">
+        <v>598.9162251798078</v>
+      </c>
+      <c r="O28">
+        <v>6.291361571149517E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
-        <v>120.8537382075807</v>
+        <v>120.8537382075808</v>
       </c>
       <c r="B29">
-        <v>6018.320428250824</v>
+        <v>6018.320428250813</v>
       </c>
       <c r="C29">
-        <v>6.030632535482141</v>
+        <v>6.030632535482128</v>
       </c>
       <c r="D29">
-        <v>9186.253191608765</v>
+        <v>9186.253191608763</v>
       </c>
       <c r="E29">
         <v>10860.4809093322</v>
       </c>
       <c r="F29">
-        <v>9863.177648190333</v>
+        <v>9863.177648190331</v>
       </c>
       <c r="G29">
         <v>12.83705023366537</v>
       </c>
       <c r="H29">
-        <v>19.67065555680329</v>
+        <v>19.67065555680327</v>
       </c>
       <c r="I29">
-        <v>4.793314278811324E-09</v>
+        <v>4.793314278811328E-09</v>
       </c>
       <c r="J29">
-        <v>2.400848101482239E-09</v>
+        <v>2.400848101482241E-09</v>
       </c>
       <c r="K29">
-        <v>0.000190716587356526</v>
+        <v>0.0001907165873565259</v>
       </c>
       <c r="L29">
-        <v>0.04183451945090015</v>
+        <v>0.04183451945090014</v>
       </c>
       <c r="M29">
-        <v>594.4244795177553</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>0.04176291161961113</v>
+      </c>
+      <c r="N29">
+        <v>594.4244795177552</v>
+      </c>
+      <c r="O29">
+        <v>7.160783128901876E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
-        <v>123.051873117097</v>
+        <v>123.0518731170971</v>
       </c>
       <c r="B30">
-        <v>7308.573819954447</v>
+        <v>7308.573819954474</v>
       </c>
       <c r="C30">
-        <v>7.200778768602422</v>
+        <v>7.200778768602447</v>
       </c>
       <c r="D30">
         <v>9139.040343213179</v>
@@ -1715,118 +1895,136 @@
         <v>9800.474200946766</v>
       </c>
       <c r="G30">
-        <v>12.27924438898213</v>
+        <v>12.27924438898208</v>
       </c>
       <c r="H30">
-        <v>19.07782737771009</v>
+        <v>19.07782737771003</v>
       </c>
       <c r="I30">
-        <v>4.900664259181975E-09</v>
+        <v>4.900664259181973E-09</v>
       </c>
       <c r="J30">
-        <v>2.554370158658916E-09</v>
+        <v>2.554370158658915E-09</v>
       </c>
       <c r="K30">
         <v>0.000182319798776215</v>
       </c>
       <c r="L30">
-        <v>0.04192034156944812</v>
+        <v>0.04192034156944813</v>
       </c>
       <c r="M30">
-        <v>589.8476851761909</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>0.04183915956090643</v>
+      </c>
+      <c r="N30">
+        <v>589.8476851761912</v>
+      </c>
+      <c r="O30">
+        <v>8.118200854170725E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
         <v>125.2500080266133</v>
       </c>
       <c r="B31">
-        <v>8810.390129730526</v>
+        <v>8810.390129730555</v>
       </c>
       <c r="C31">
-        <v>8.538734612423383</v>
+        <v>8.538734612423408</v>
       </c>
       <c r="D31">
-        <v>9092.121448768632</v>
+        <v>9092.12144876863</v>
       </c>
       <c r="E31">
         <v>10769.55990956459</v>
       </c>
       <c r="F31">
-        <v>9738.714429693788</v>
+        <v>9738.714429693789</v>
       </c>
       <c r="G31">
         <v>11.78124286292498</v>
       </c>
       <c r="H31">
-        <v>18.57930562897392</v>
+        <v>18.57930562897393</v>
       </c>
       <c r="I31">
-        <v>5.013376171692506E-09</v>
+        <v>5.013376171692507E-09</v>
       </c>
       <c r="J31">
-        <v>2.713171483498543E-09</v>
+        <v>2.713171483498548E-09</v>
       </c>
       <c r="K31">
-        <v>0.0001746885201101794</v>
+        <v>0.0001746885201101792</v>
       </c>
       <c r="L31">
-        <v>0.04193005793298679</v>
+        <v>0.0419300579329868</v>
       </c>
       <c r="M31">
+        <v>0.04183838755761238</v>
+      </c>
+      <c r="N31">
         <v>585.1871681938433</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="O31">
+        <v>9.167037537441423E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>127.4481429361296</v>
       </c>
       <c r="B32">
-        <v>10547.45207600118</v>
+        <v>10547.45207600141</v>
       </c>
       <c r="C32">
-        <v>10.05976078492911</v>
+        <v>10.05976078492933</v>
       </c>
       <c r="D32">
-        <v>9045.424249459395</v>
+        <v>9045.424249459393</v>
       </c>
       <c r="E32">
-        <v>10724.99502058178</v>
+        <v>10724.99502058177</v>
       </c>
       <c r="F32">
-        <v>9677.68166213045</v>
+        <v>9677.681662130448</v>
       </c>
       <c r="G32">
         <v>11.33617014893808</v>
       </c>
       <c r="H32">
-        <v>18.16506312088013</v>
+        <v>18.16506312088017</v>
       </c>
       <c r="I32">
-        <v>5.131691051809954E-09</v>
+        <v>5.131691051809966E-09</v>
       </c>
       <c r="J32">
-        <v>2.876912876285609E-09</v>
+        <v>2.876912876285616E-09</v>
       </c>
       <c r="K32">
-        <v>0.000167725362250712</v>
+        <v>0.0001677253622507115</v>
       </c>
       <c r="L32">
-        <v>0.04186381401177618</v>
+        <v>0.04186381401177616</v>
       </c>
       <c r="M32">
-        <v>580.4446963888471</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>0.0417607102206268</v>
+      </c>
+      <c r="N32">
+        <v>580.4446963888464</v>
+      </c>
+      <c r="O32">
+        <v>0.0001031037911493619</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
-        <v>129.6462778456458</v>
+        <v>129.6462778456459</v>
       </c>
       <c r="B33">
-        <v>12544.70471527694</v>
+        <v>12544.70471527699</v>
       </c>
       <c r="C33">
-        <v>11.77959778592062</v>
+        <v>11.77959778592066</v>
       </c>
       <c r="D33">
         <v>8998.883141190165</v>
@@ -1838,36 +2036,42 @@
         <v>9617.179955965556</v>
       </c>
       <c r="G33">
-        <v>10.93783667596142</v>
+        <v>10.93783667596141</v>
       </c>
       <c r="H33">
         <v>17.8261540486231</v>
       </c>
       <c r="I33">
-        <v>5.255867232386658E-09</v>
+        <v>5.255867232386662E-09</v>
       </c>
       <c r="J33">
-        <v>3.045285755886242E-09</v>
+        <v>3.045285755886246E-09</v>
       </c>
       <c r="K33">
-        <v>0.0001613460061617164</v>
+        <v>0.0001613460061617163</v>
       </c>
       <c r="L33">
         <v>0.04172440651922012</v>
       </c>
       <c r="M33">
-        <v>575.6223166913422</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>0.04160889654774552</v>
+      </c>
+      <c r="N33">
+        <v>575.6223166913421</v>
+      </c>
+      <c r="O33">
+        <v>0.0001155099714745949</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
-        <v>131.8444127551621</v>
+        <v>131.8444127551622</v>
       </c>
       <c r="B34">
-        <v>14828.30474651424</v>
+        <v>14828.30474651431</v>
       </c>
       <c r="C34">
-        <v>13.71443168932073</v>
+        <v>13.7144316893208</v>
       </c>
       <c r="D34">
         <v>8952.438419991524</v>
@@ -1876,19 +2080,19 @@
         <v>10636.59465152437</v>
       </c>
       <c r="F34">
-        <v>9557.031948157097</v>
+        <v>9557.031948157099</v>
       </c>
       <c r="G34">
-        <v>10.58069514454643</v>
+        <v>10.58069514454644</v>
       </c>
       <c r="H34">
         <v>17.55461566553875</v>
       </c>
       <c r="I34">
-        <v>5.386181886601524E-09</v>
+        <v>5.386181886601519E-09</v>
       </c>
       <c r="J34">
-        <v>3.218018111669842E-09</v>
+        <v>3.218018111669845E-09</v>
       </c>
       <c r="K34">
         <v>0.0001554771410030533</v>
@@ -1897,77 +2101,89 @@
         <v>0.04151680518931773</v>
       </c>
       <c r="M34">
-        <v>570.7222360739906</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>0.04138789142766293</v>
+      </c>
+      <c r="N34">
+        <v>570.7222360739908</v>
+      </c>
+      <c r="O34">
+        <v>0.0001289137616548045</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
-        <v>134.0425476646784</v>
+        <v>134.0425476646785</v>
       </c>
       <c r="B35">
-        <v>17425.56424479471</v>
+        <v>17425.56424479473</v>
       </c>
       <c r="C35">
-        <v>15.88086258341254</v>
+        <v>15.88086258341255</v>
       </c>
       <c r="D35">
-        <v>8906.035615917672</v>
+        <v>8906.03561591767</v>
       </c>
       <c r="E35">
         <v>10592.38842703261</v>
       </c>
       <c r="F35">
-        <v>9497.076907835359</v>
+        <v>9497.076907835361</v>
       </c>
       <c r="G35">
-        <v>10.25979191441679</v>
+        <v>10.25979191441674</v>
       </c>
       <c r="H35">
-        <v>17.34337391400038</v>
+        <v>17.34337391400033</v>
       </c>
       <c r="I35">
         <v>5.522932655785664E-09</v>
       </c>
       <c r="J35">
-        <v>3.394877565576738E-09</v>
+        <v>3.394877565576746E-09</v>
       </c>
       <c r="K35">
-        <v>0.0001500548869616625</v>
+        <v>0.0001500548869616623</v>
       </c>
       <c r="L35">
         <v>0.04124752951618978</v>
       </c>
       <c r="M35">
-        <v>565.7467369295698</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>0.04110419208866296</v>
+      </c>
+      <c r="N35">
+        <v>565.74673692957</v>
+      </c>
+      <c r="O35">
+        <v>0.0001433374275268129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
-        <v>136.2406825741947</v>
+        <v>136.2406825741948</v>
       </c>
       <c r="B36">
-        <v>20364.88975604774</v>
+        <v>20364.88975604778</v>
       </c>
       <c r="C36">
-        <v>18.29587617395332</v>
+        <v>18.29587617395335</v>
       </c>
       <c r="D36">
         <v>8859.624903788774</v>
       </c>
       <c r="E36">
-        <v>10547.95669826829</v>
+        <v>10547.95669826828</v>
       </c>
       <c r="F36">
         <v>9437.168980872089</v>
       </c>
       <c r="G36">
-        <v>9.970716439673659</v>
+        <v>9.970716439673648</v>
       </c>
       <c r="H36">
-        <v>17.18615449671124</v>
+        <v>17.18615449671122</v>
       </c>
       <c r="I36">
-        <v>5.666439387704206E-09</v>
+        <v>5.666439387704202E-09</v>
       </c>
       <c r="J36">
         <v>3.575672090823052E-09</v>
@@ -1976,18 +2192,24 @@
         <v>0.0001450235502308376</v>
       </c>
       <c r="L36">
-        <v>0.04092398720283183</v>
+        <v>0.04092398720283184</v>
       </c>
       <c r="M36">
-        <v>560.6981189978598</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>0.0407651862614862</v>
+      </c>
+      <c r="N36">
+        <v>560.6981189978599</v>
+      </c>
+      <c r="O36">
+        <v>0.0001588009413456366</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
         <v>138.438817483711</v>
       </c>
       <c r="B37">
-        <v>23675.71766292623</v>
+        <v>23675.71766292622</v>
       </c>
       <c r="C37">
         <v>20.97681897801383</v>
@@ -1999,16 +2221,16 @@
         <v>10503.15021554656</v>
       </c>
       <c r="F37">
-        <v>9377.17561193037</v>
+        <v>9377.175611930372</v>
       </c>
       <c r="G37">
-        <v>9.709550899426725</v>
+        <v>9.709550899426707</v>
       </c>
       <c r="H37">
         <v>17.07740029764794</v>
       </c>
       <c r="I37">
-        <v>5.817046010912153E-09</v>
+        <v>5.817046010912152E-09</v>
       </c>
       <c r="J37">
         <v>3.760249002195295E-09</v>
@@ -2020,62 +2242,74 @@
         <v>0.04055387042702389</v>
       </c>
       <c r="M37">
-        <v>555.5786612054984</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>0.04037854817756056</v>
+      </c>
+      <c r="N37">
+        <v>555.5786612054986</v>
+      </c>
+      <c r="O37">
+        <v>0.0001753222494633335</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
-        <v>140.6369523932272</v>
+        <v>140.6369523932273</v>
       </c>
       <c r="B38">
-        <v>27388.44669696972</v>
+        <v>27388.44669696975</v>
       </c>
       <c r="C38">
-        <v>23.9413774582317</v>
+        <v>23.94137745823171</v>
       </c>
       <c r="D38">
-        <v>8766.600602152086</v>
+        <v>8766.600602152084</v>
       </c>
       <c r="E38">
         <v>10457.83151811284</v>
       </c>
       <c r="F38">
-        <v>9316.976128777531</v>
+        <v>9316.976128777533</v>
       </c>
       <c r="G38">
-        <v>9.472821511833333</v>
+        <v>9.472821511833336</v>
       </c>
       <c r="H38">
         <v>17.0121956259917</v>
       </c>
       <c r="I38">
-        <v>5.975122571481291E-09</v>
+        <v>5.975122571481296E-09</v>
       </c>
       <c r="J38">
-        <v>3.948492813778197E-09</v>
+        <v>3.948492813778202E-09</v>
       </c>
       <c r="K38">
-        <v>0.0001359458508880951</v>
+        <v>0.000135945850888095</v>
       </c>
       <c r="L38">
         <v>0.04014467613988194</v>
       </c>
       <c r="M38">
-        <v>550.3905979923015</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>0.03995175862351381</v>
+      </c>
+      <c r="N38">
+        <v>550.3905979923014</v>
+      </c>
+      <c r="O38">
+        <v>0.0001929175163681269</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
-        <v>142.8350873027435</v>
+        <v>142.8350873027436</v>
       </c>
       <c r="B39">
-        <v>31534.36842707898</v>
+        <v>31534.36842707873</v>
       </c>
       <c r="C39">
-        <v>27.20756137938055</v>
+        <v>27.20756137938033</v>
       </c>
       <c r="D39">
-        <v>8719.906167889347</v>
+        <v>8719.906167889345</v>
       </c>
       <c r="E39">
         <v>10411.87368739451</v>
@@ -2084,36 +2318,42 @@
         <v>9256.460473377756</v>
       </c>
       <c r="G39">
-        <v>9.257452511397375</v>
+        <v>9.257452511397352</v>
       </c>
       <c r="H39">
-        <v>16.98619743091366</v>
+        <v>16.98619743091363</v>
       </c>
       <c r="I39">
         <v>6.14106745970449E-09</v>
       </c>
       <c r="J39">
-        <v>4.140322482764148E-09</v>
+        <v>4.14032248276415E-09</v>
       </c>
       <c r="K39">
-        <v>0.0001318206542652962</v>
+        <v>0.0001318206542652961</v>
       </c>
       <c r="L39">
         <v>0.03970337932534802</v>
       </c>
       <c r="M39">
-        <v>545.136105807186</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>0.03949177797986918</v>
+      </c>
+      <c r="N39">
+        <v>545.1361058071861</v>
+      </c>
+      <c r="O39">
+        <v>0.0002116013454788289</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40">
-        <v>145.0332222122598</v>
+        <v>145.0332222122599</v>
       </c>
       <c r="B40">
-        <v>36145.5965017688</v>
+        <v>36145.59650176901</v>
       </c>
       <c r="C40">
-        <v>30.79369161239984</v>
+        <v>30.79369161240001</v>
       </c>
       <c r="D40">
         <v>8673.041353388062</v>
@@ -2125,39 +2365,45 @@
         <v>9195.528064574373</v>
       </c>
       <c r="G40">
-        <v>9.060723383142051</v>
+        <v>9.060723383142024</v>
       </c>
       <c r="H40">
         <v>16.99557339816384</v>
       </c>
       <c r="I40">
-        <v>6.315309856334215E-09</v>
+        <v>6.315309856334217E-09</v>
       </c>
       <c r="J40">
-        <v>4.335688450715572E-09</v>
+        <v>4.335688450715574E-09</v>
       </c>
       <c r="K40">
-        <v>0.0001279273253713128</v>
+        <v>0.0001279273253713127</v>
       </c>
       <c r="L40">
         <v>0.03923625467945124</v>
       </c>
       <c r="M40">
-        <v>539.8172964348538</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>0.03900486769872768</v>
+      </c>
+      <c r="N40">
+        <v>539.8172964348539</v>
+      </c>
+      <c r="O40">
+        <v>0.0002313869807235592</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
         <v>147.2313571217761</v>
       </c>
       <c r="B41">
-        <v>41254.99536522195</v>
+        <v>41254.99536522228</v>
       </c>
       <c r="C41">
-        <v>34.71839256572897</v>
+        <v>34.71839256572925</v>
       </c>
       <c r="D41">
-        <v>8625.972778940479</v>
+        <v>8625.972778940475</v>
       </c>
       <c r="E41">
         <v>10317.57905563317</v>
@@ -2166,54 +2412,60 @@
         <v>9134.086777845538</v>
       </c>
       <c r="G41">
-        <v>8.880229658611709</v>
+        <v>8.880229658611706</v>
       </c>
       <c r="H41">
-        <v>17.03694667309793</v>
+        <v>17.03694667309797</v>
       </c>
       <c r="I41">
-        <v>6.498312430534567E-09</v>
+        <v>6.498312430534587E-09</v>
       </c>
       <c r="J41">
-        <v>4.534569778785905E-09</v>
+        <v>4.534569778785915E-09</v>
       </c>
       <c r="K41">
-        <v>0.0001242385332194253</v>
+        <v>0.0001242385332194251</v>
       </c>
       <c r="L41">
-        <v>0.03874881947280497</v>
+        <v>0.03874881947280493</v>
       </c>
       <c r="M41">
-        <v>534.4362146462198</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>0.03849653297823698</v>
+      </c>
+      <c r="N41">
+        <v>534.4362146462192</v>
+      </c>
+      <c r="O41">
+        <v>0.0002522864945679441</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
-        <v>149.4294920312923</v>
+        <v>149.4294920312924</v>
       </c>
       <c r="B42">
-        <v>46896.10910688998</v>
+        <v>46896.10910689012</v>
       </c>
       <c r="C42">
-        <v>39.00058938992316</v>
+        <v>39.00058938992327</v>
       </c>
       <c r="D42">
-        <v>8578.66931286338</v>
+        <v>8578.669312863381</v>
       </c>
       <c r="E42">
-        <v>10269.03159775649</v>
+        <v>10269.03159775648</v>
       </c>
       <c r="F42">
-        <v>9072.052028530448</v>
+        <v>9072.052028530441</v>
       </c>
       <c r="G42">
-        <v>8.71384736763962</v>
+        <v>8.713847367639616</v>
       </c>
       <c r="H42">
         <v>17.10734684424855</v>
       </c>
       <c r="I42">
-        <v>6.690574325070781E-09</v>
+        <v>6.690574325070771E-09</v>
       </c>
       <c r="J42">
         <v>4.736971566513082E-09</v>
@@ -2222,24 +2474,30 @@
         <v>0.0001207307942130333</v>
       </c>
       <c r="L42">
-        <v>0.0382458602568338</v>
+        <v>0.03824586025683381</v>
       </c>
       <c r="M42">
-        <v>528.9948383503728</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>0.03797154928861951</v>
+      </c>
+      <c r="N42">
+        <v>528.9948383503731</v>
+      </c>
+      <c r="O42">
+        <v>0.0002743109682143022</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43">
-        <v>151.6276269408086</v>
+        <v>151.6276269408087</v>
       </c>
       <c r="B43">
-        <v>53103.09104314946</v>
+        <v>53103.09104314953</v>
       </c>
       <c r="C43">
-        <v>43.65951007902842</v>
+        <v>43.65951007902847</v>
       </c>
       <c r="D43">
-        <v>8531.10180403533</v>
+        <v>8531.101804035328</v>
       </c>
       <c r="E43">
         <v>10219.42196241837</v>
@@ -2248,39 +2506,45 @@
         <v>9009.345945970616</v>
       </c>
       <c r="G43">
-        <v>8.559701090033744</v>
+        <v>8.559701090033711</v>
       </c>
       <c r="H43">
-        <v>17.2041667545602</v>
+        <v>17.20416675456016</v>
       </c>
       <c r="I43">
-        <v>6.892634468396382E-09</v>
+        <v>6.892634468396394E-09</v>
       </c>
       <c r="J43">
-        <v>4.942922753866716E-09</v>
+        <v>4.94292275386672E-09</v>
       </c>
       <c r="K43">
-        <v>0.0001173840101740352</v>
+        <v>0.000117384010174035</v>
       </c>
       <c r="L43">
-        <v>0.03773150648849215</v>
+        <v>0.03773150648849212</v>
       </c>
       <c r="M43">
-        <v>523.495079972748</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>0.03743403581982464</v>
+      </c>
+      <c r="N43">
+        <v>523.4950799727477</v>
+      </c>
+      <c r="O43">
+        <v>0.0002974706686674734</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
-        <v>153.8257618503249</v>
+        <v>153.825761850325</v>
       </c>
       <c r="B44">
-        <v>59910.63456871275</v>
+        <v>59910.63456871241</v>
       </c>
       <c r="C44">
-        <v>48.71469258075453</v>
+        <v>48.71469258075422</v>
       </c>
       <c r="D44">
-        <v>8483.242840040224</v>
+        <v>8483.242840040222</v>
       </c>
       <c r="E44">
         <v>10168.66119608691</v>
@@ -2289,57 +2553,63 @@
         <v>8945.89662711293</v>
       </c>
       <c r="G44">
-        <v>8.416135449319098</v>
+        <v>8.416135449319102</v>
       </c>
       <c r="H44">
-        <v>17.32512467387175</v>
+        <v>17.32512467387177</v>
       </c>
       <c r="I44">
-        <v>7.105075258324335E-09</v>
+        <v>7.105075258324341E-09</v>
       </c>
       <c r="J44">
-        <v>5.152474336954685E-09</v>
+        <v>5.152474336954693E-09</v>
       </c>
       <c r="K44">
-        <v>0.0001141810519694168</v>
+        <v>0.0001141810519694167</v>
       </c>
       <c r="L44">
-        <v>0.03720932116971068</v>
+        <v>0.03720932116971067</v>
       </c>
       <c r="M44">
-        <v>517.9387882079843</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>0.03688754594397777</v>
+      </c>
+      <c r="N44">
+        <v>517.9387882079842</v>
+      </c>
+      <c r="O44">
+        <v>0.0003217752257328916</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
-        <v>156.0238967598412</v>
+        <v>156.0238967598413</v>
       </c>
       <c r="B45">
-        <v>67353.90575642814</v>
+        <v>67353.90575642833</v>
       </c>
       <c r="C45">
-        <v>54.18599702698177</v>
+        <v>54.18599702698192</v>
       </c>
       <c r="D45">
         <v>8435.066527571555</v>
       </c>
       <c r="E45">
-        <v>10116.66560093928</v>
+        <v>10116.66560093927</v>
       </c>
       <c r="F45">
-        <v>8881.637459217818</v>
+        <v>8881.637459217811</v>
       </c>
       <c r="G45">
-        <v>8.281689825422475</v>
+        <v>8.281689825422493</v>
       </c>
       <c r="H45">
-        <v>17.46823135789034</v>
+        <v>17.46823135789035</v>
       </c>
       <c r="I45">
-        <v>7.328526668005361E-09</v>
+        <v>7.328526668005362E-09</v>
       </c>
       <c r="J45">
-        <v>5.365697979160529E-09</v>
+        <v>5.365697979160531E-09</v>
       </c>
       <c r="K45">
         <v>0.0001111073839952864</v>
@@ -2348,21 +2618,27 @@
         <v>0.03668238826815153</v>
       </c>
       <c r="M45">
-        <v>512.3277496145131</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>0.03633515445797292</v>
+      </c>
+      <c r="N45">
+        <v>512.3277496145129</v>
+      </c>
+      <c r="O45">
+        <v>0.0003472338101786102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
-        <v>158.2220316693574</v>
+        <v>158.2220316693575</v>
       </c>
       <c r="B46">
-        <v>75468.47812772494</v>
+        <v>75468.47812772532</v>
       </c>
       <c r="C46">
-        <v>60.09362320639437</v>
+        <v>60.09362320639467</v>
       </c>
       <c r="D46">
-        <v>8386.548292132826</v>
+        <v>8386.548292132824</v>
       </c>
       <c r="E46">
         <v>10063.35610881199</v>
@@ -2371,28 +2647,34 @@
         <v>8816.506502367796</v>
       </c>
       <c r="G46">
-        <v>8.155076025744963</v>
+        <v>8.155076025744947</v>
       </c>
       <c r="H46">
-        <v>17.63176152905829</v>
+        <v>17.6317615290583</v>
       </c>
       <c r="I46">
-        <v>7.563670832145814E-09</v>
+        <v>7.563670832145825E-09</v>
       </c>
       <c r="J46">
-        <v>5.582684969219398E-09</v>
+        <v>5.58268496921941E-09</v>
       </c>
       <c r="K46">
-        <v>0.0001081507256363129</v>
+        <v>0.0001081507256363127</v>
       </c>
       <c r="L46">
-        <v>0.03615338603352761</v>
+        <v>0.03615338603352759</v>
       </c>
       <c r="M46">
-        <v>506.6636897493836</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>0.03577953072097399</v>
+      </c>
+      <c r="N46">
+        <v>506.6636897493833</v>
+      </c>
+      <c r="O46">
+        <v>0.0003738553125536071</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
         <v>160.4201665788738</v>
       </c>
@@ -2400,212 +2682,242 @@
         <v>84290.26996297385</v>
       </c>
       <c r="C47">
-        <v>66.45813342197769</v>
+        <v>66.45813342197766</v>
       </c>
       <c r="D47">
-        <v>8337.664694395289</v>
+        <v>8337.664694395287</v>
       </c>
       <c r="E47">
-        <v>10008.65770260552</v>
+        <v>10008.65770260553</v>
       </c>
       <c r="F47">
-        <v>8750.445923450457</v>
+        <v>8750.445923450467</v>
       </c>
       <c r="G47">
-        <v>8.035158637257094</v>
+        <v>8.035158637257075</v>
       </c>
       <c r="H47">
-        <v>17.81422933804844</v>
+        <v>17.81422933804842</v>
       </c>
       <c r="I47">
-        <v>7.811247179970841E-09</v>
+        <v>7.811247179970845E-09</v>
       </c>
       <c r="J47">
-        <v>5.80354546247913E-09</v>
+        <v>5.803545462479135E-09</v>
       </c>
       <c r="K47">
-        <v>0.0001053007463994609</v>
+        <v>0.0001053007463994607</v>
       </c>
       <c r="L47">
         <v>0.03562464267104567</v>
       </c>
       <c r="M47">
+        <v>0.03522299415034036</v>
+      </c>
+      <c r="N47">
         <v>500.9482737036315</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="O47">
+        <v>0.0004016485207053111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
-        <v>162.61830148839</v>
+        <v>162.6183014883901</v>
       </c>
       <c r="B48">
-        <v>93855.48447221877</v>
+        <v>93855.48447221878</v>
       </c>
       <c r="C48">
-        <v>73.30048090805381</v>
+        <v>73.30048090805379</v>
       </c>
       <c r="D48">
         <v>8288.39326085203</v>
       </c>
       <c r="E48">
-        <v>9952.498877698859</v>
+        <v>9952.498877698858</v>
       </c>
       <c r="F48">
         <v>8683.401474176282</v>
       </c>
       <c r="G48">
-        <v>7.920937780324034</v>
+        <v>7.920937780324006</v>
       </c>
       <c r="H48">
-        <v>18.01436739691051</v>
+        <v>18.01436739691048</v>
       </c>
       <c r="I48">
-        <v>8.072058191624081E-09</v>
+        <v>8.072058191624076E-09</v>
       </c>
       <c r="J48">
-        <v>6.028407937679676E-09</v>
+        <v>6.028407937679679E-09</v>
       </c>
       <c r="K48">
         <v>0.0001025487918470533</v>
       </c>
       <c r="L48">
-        <v>0.03509817562954497</v>
+        <v>0.03509817562954498</v>
       </c>
       <c r="M48">
-        <v>495.1831060059292</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>0.03466755333656061</v>
+      </c>
+      <c r="N48">
+        <v>495.1831060059294</v>
+      </c>
+      <c r="O48">
+        <v>0.000430622292984374</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49">
-        <v>164.8164363979063</v>
+        <v>164.8164363979064</v>
       </c>
       <c r="B49">
-        <v>104200.5531023576</v>
+        <v>104200.5531023572</v>
       </c>
       <c r="C49">
-        <v>80.64204402464919</v>
+        <v>80.64204402464881</v>
       </c>
       <c r="D49">
-        <v>8238.712326642803</v>
+        <v>8238.712326642801</v>
       </c>
       <c r="E49">
-        <v>9894.811136669619</v>
+        <v>9894.81113666963</v>
       </c>
       <c r="F49">
-        <v>8615.322006479651</v>
+        <v>8615.322006479661</v>
       </c>
       <c r="G49">
-        <v>7.811533993407557</v>
+        <v>7.811533993407576</v>
       </c>
       <c r="H49">
-        <v>18.23110901291578</v>
+        <v>18.23110901291579</v>
       </c>
       <c r="I49">
-        <v>8.346975866794685E-09</v>
+        <v>8.34697586679469E-09</v>
       </c>
       <c r="J49">
-        <v>6.257418805592245E-09</v>
+        <v>6.257418805592254E-09</v>
       </c>
       <c r="K49">
-        <v>9.988763779040392E-05</v>
+        <v>9.988763779040384E-05</v>
       </c>
       <c r="L49">
-        <v>0.03457571821250024</v>
+        <v>0.03457571821250022</v>
       </c>
       <c r="M49">
-        <v>489.3697299286474</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>0.03411493248900346</v>
+      </c>
+      <c r="N49">
+        <v>489.3697299286472</v>
+      </c>
+      <c r="O49">
+        <v>0.0004607857234967563</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50">
         <v>167.0145713074226</v>
       </c>
       <c r="B50">
-        <v>115362.0822174356</v>
+        <v>115362.0822174357</v>
       </c>
       <c r="C50">
-        <v>88.50466650204801</v>
+        <v>88.50466650204811</v>
       </c>
       <c r="D50">
-        <v>8188.600888622941</v>
+        <v>8188.600888622939</v>
       </c>
       <c r="E50">
-        <v>9835.528511243947</v>
+        <v>9835.528511243951</v>
       </c>
       <c r="F50">
-        <v>8546.159019332081</v>
+        <v>8546.159019332083</v>
       </c>
       <c r="G50">
-        <v>7.706174993121084</v>
+        <v>7.706174993121072</v>
       </c>
       <c r="H50">
         <v>18.46357329350659</v>
       </c>
       <c r="I50">
-        <v>8.636949008745291E-09</v>
+        <v>8.636949008745296E-09</v>
       </c>
       <c r="J50">
-        <v>6.490742114848079E-09</v>
+        <v>6.490742114848083E-09</v>
       </c>
       <c r="K50">
-        <v>9.731127048323433E-05</v>
+        <v>9.731127048323427E-05</v>
       </c>
       <c r="L50">
-        <v>0.03405873790698273</v>
+        <v>0.0340587379069827</v>
       </c>
       <c r="M50">
+        <v>0.03356658961144037</v>
+      </c>
+      <c r="N50">
         <v>483.5096262667404</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="O50">
+        <v>0.0004921482955423307</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51">
         <v>169.2127062169389</v>
       </c>
       <c r="B51">
-        <v>127376.8033544363</v>
+        <v>127376.8033544367</v>
       </c>
       <c r="C51">
-        <v>96.91070407618122</v>
+        <v>96.91070407618146</v>
       </c>
       <c r="D51">
-        <v>8138.038466915129</v>
+        <v>8138.038466915128</v>
       </c>
       <c r="E51">
-        <v>9774.587105922883</v>
+        <v>9774.587105922868</v>
       </c>
       <c r="F51">
-        <v>8475.866231573416</v>
+        <v>8475.866231573404</v>
       </c>
       <c r="G51">
-        <v>7.604184073626125</v>
+        <v>7.604184073626119</v>
       </c>
       <c r="H51">
-        <v>18.7110528356945</v>
+        <v>18.71105283569451</v>
       </c>
       <c r="I51">
-        <v>8.943011444048608E-09</v>
+        <v>8.943011444048615E-09</v>
       </c>
       <c r="J51">
-        <v>6.728559311918464E-09</v>
+        <v>6.728559311918469E-09</v>
       </c>
       <c r="K51">
-        <v>9.481469078782846E-05</v>
+        <v>9.481469078782841E-05</v>
       </c>
       <c r="L51">
-        <v>0.03354845041378231</v>
+        <v>0.03354845041378229</v>
       </c>
       <c r="M51">
+        <v>0.03302373039427058</v>
+      </c>
+      <c r="N51">
         <v>477.6042116747462</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="O51">
+        <v>0.0005247200195117134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52">
         <v>171.4108411264552</v>
       </c>
       <c r="B52">
-        <v>140281.5272280608</v>
+        <v>140281.5272280606</v>
       </c>
       <c r="C52">
-        <v>105.8830779372539</v>
+        <v>105.8830779372537</v>
       </c>
       <c r="D52">
         <v>8087.004973318652</v>
@@ -2617,356 +2929,410 @@
         <v>8404.399175840214</v>
       </c>
       <c r="G52">
-        <v>7.504969931082709</v>
+        <v>7.504969931082706</v>
       </c>
       <c r="H52">
-        <v>18.97300375662153</v>
+        <v>18.97300375662151</v>
       </c>
       <c r="I52">
-        <v>9.266291318789482E-09</v>
+        <v>9.266291318789489E-09</v>
       </c>
       <c r="J52">
-        <v>6.971069024735611E-09</v>
+        <v>6.971069024735612E-09</v>
       </c>
       <c r="K52">
-        <v>9.239374048222605E-05</v>
+        <v>9.239374048222597E-05</v>
       </c>
       <c r="L52">
-        <v>0.03304583242309429</v>
+        <v>0.03304583242309427</v>
       </c>
       <c r="M52">
-        <v>471.6548366476346</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>0.03248732087116708</v>
+      </c>
+      <c r="N52">
+        <v>471.6548366476344</v>
+      </c>
+      <c r="O52">
+        <v>0.000558511551927189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53">
-        <v>173.6089760359714</v>
+        <v>173.6089760359715</v>
       </c>
       <c r="B53">
-        <v>154113.1016345672</v>
+        <v>154113.1016345674</v>
       </c>
       <c r="C53">
-        <v>115.4453355112061</v>
+        <v>115.4453355112062</v>
       </c>
       <c r="D53">
-        <v>8035.480585059206</v>
+        <v>8035.480585059205</v>
       </c>
       <c r="E53">
-        <v>9647.480110188648</v>
+        <v>9647.480110188646</v>
       </c>
       <c r="F53">
-        <v>8331.71480904469</v>
+        <v>8331.714809044688</v>
       </c>
       <c r="G53">
-        <v>7.408017721320051</v>
+        <v>7.408017721320023</v>
       </c>
       <c r="H53">
-        <v>19.24903786507375</v>
+        <v>19.24903786507373</v>
       </c>
       <c r="I53">
-        <v>9.608021636465585E-09</v>
+        <v>9.608021636465588E-09</v>
       </c>
       <c r="J53">
-        <v>7.218486851659383E-09</v>
+        <v>7.218486851659394E-09</v>
       </c>
       <c r="K53">
-        <v>9.004494903657556E-05</v>
+        <v>9.00449490365755E-05</v>
       </c>
       <c r="L53">
-        <v>0.03255163512011573</v>
+        <v>0.03255163512011571</v>
       </c>
       <c r="M53">
+        <v>0.0319581008271845</v>
+      </c>
+      <c r="N53">
         <v>465.6627832223475</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="O53">
+        <v>0.0005935342929312064</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54">
-        <v>175.8071109454877</v>
+        <v>175.8071109454878</v>
       </c>
       <c r="B54">
-        <v>168908.3733870378</v>
+        <v>168908.3733870397</v>
       </c>
       <c r="C54">
-        <v>125.6217192082172</v>
+        <v>125.6217192082187</v>
       </c>
       <c r="D54">
         <v>7983.445622445225</v>
       </c>
       <c r="E54">
-        <v>9581.193188138772</v>
+        <v>9581.193188138763</v>
       </c>
       <c r="F54">
-        <v>8257.771135136703</v>
+        <v>8257.771135136696</v>
       </c>
       <c r="G54">
-        <v>7.31288118105936</v>
+        <v>7.312881181059346</v>
       </c>
       <c r="H54">
-        <v>19.538916816227</v>
+        <v>19.53891681622697</v>
       </c>
       <c r="I54">
-        <v>9.969552232201475E-09</v>
+        <v>9.96955223220146E-09</v>
       </c>
       <c r="J54">
-        <v>7.471045148636805E-09</v>
+        <v>7.471045148636806E-09</v>
       </c>
       <c r="K54">
         <v>8.77653993137028E-05</v>
       </c>
       <c r="L54">
-        <v>0.0320663994605668</v>
+        <v>0.03206639946056678</v>
       </c>
       <c r="M54">
-        <v>459.6292624625868</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>0.03143659900029522</v>
+      </c>
+      <c r="N54">
+        <v>459.6292624625871</v>
+      </c>
+      <c r="O54">
+        <v>0.0006298004602715629</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55">
         <v>178.005245855004</v>
       </c>
       <c r="B55">
-        <v>184704.1544022664</v>
+        <v>184704.1544022665</v>
       </c>
       <c r="C55">
-        <v>136.4372439066159</v>
+        <v>136.437243906616</v>
       </c>
       <c r="D55">
-        <v>7930.880429055289</v>
+        <v>7930.880429055285</v>
       </c>
       <c r="E55">
-        <v>9513.003983568002</v>
+        <v>9513.003983567987</v>
       </c>
       <c r="F55">
-        <v>8182.526836071243</v>
+        <v>8182.526836071229</v>
       </c>
       <c r="G55">
-        <v>7.21917566416978</v>
+        <v>7.219175664169757</v>
       </c>
       <c r="H55">
-        <v>19.84254813377757</v>
+        <v>19.84254813377758</v>
       </c>
       <c r="I55">
-        <v>1.035236341327815E-08</v>
+        <v>1.035236341327817E-08</v>
       </c>
       <c r="J55">
-        <v>7.728992817064326E-09</v>
+        <v>7.728992817064341E-09</v>
       </c>
       <c r="K55">
-        <v>8.555261074653522E-05</v>
+        <v>8.555261074653506E-05</v>
       </c>
       <c r="L55">
-        <v>0.03159047353071928</v>
+        <v>0.03159047353071924</v>
       </c>
       <c r="M55">
-        <v>453.555411772394</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>0.03092315039208033</v>
+      </c>
+      <c r="N55">
+        <v>453.5554117723938</v>
+      </c>
+      <c r="O55">
+        <v>0.0006673231386389133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56">
         <v>180.2033807645203</v>
       </c>
       <c r="B56">
-        <v>201537.1920531593</v>
+        <v>201537.1920531596</v>
       </c>
       <c r="C56">
-        <v>147.9177840972689</v>
+        <v>147.9177840972691</v>
       </c>
       <c r="D56">
-        <v>7877.765253115991</v>
+        <v>7877.76525311599</v>
       </c>
       <c r="E56">
-        <v>9442.852533378742</v>
+        <v>9442.852533378746</v>
       </c>
       <c r="F56">
-        <v>8105.940907006797</v>
+        <v>8105.9409070068</v>
       </c>
       <c r="G56">
-        <v>7.126571964157549</v>
+        <v>7.126571964157551</v>
       </c>
       <c r="H56">
-        <v>20.1599830251992</v>
+        <v>20.15998302519925</v>
       </c>
       <c r="I56">
-        <v>1.075808153874805E-08</v>
+        <v>1.075808153874807E-08</v>
       </c>
       <c r="J56">
-        <v>7.992595102906843E-09</v>
+        <v>7.992595102906847E-09</v>
       </c>
       <c r="K56">
-        <v>8.340443861792485E-05</v>
+        <v>8.340443861792475E-05</v>
       </c>
       <c r="L56">
-        <v>0.03112403181528262</v>
+        <v>0.03112403181528261</v>
       </c>
       <c r="M56">
-        <v>447.4422920662795</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>0.03041791551125896</v>
+      </c>
+      <c r="N56">
+        <v>447.4422920662794</v>
+      </c>
+      <c r="O56">
+        <v>0.0007061163040236553</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57">
-        <v>182.4015156740365</v>
+        <v>182.4015156740366</v>
       </c>
       <c r="B57">
-        <v>219444.1438999158</v>
+        <v>219444.1438999168</v>
       </c>
       <c r="C57">
-        <v>160.0901717959217</v>
+        <v>160.0901717959224</v>
       </c>
       <c r="D57">
-        <v>7824.080128740852</v>
+        <v>7824.080128740849</v>
       </c>
       <c r="E57">
-        <v>9370.678393407656</v>
+        <v>9370.678393407645</v>
       </c>
       <c r="F57">
-        <v>8027.972291781132</v>
+        <v>8027.972291781123</v>
       </c>
       <c r="G57">
-        <v>7.03479081208225</v>
+        <v>7.034790812082268</v>
       </c>
       <c r="H57">
-        <v>20.49141595766775</v>
+        <v>20.49141595766778</v>
       </c>
       <c r="I57">
-        <v>1.118849686278899E-08</v>
+        <v>1.118849686278901E-08</v>
       </c>
       <c r="J57">
-        <v>8.262133424100654E-09</v>
+        <v>8.262133424100663E-09</v>
       </c>
       <c r="K57">
-        <v>8.131898812213579E-05</v>
+        <v>8.131898812213567E-05</v>
       </c>
       <c r="L57">
-        <v>0.03066709590805756</v>
+        <v>0.03066709590805754</v>
       </c>
       <c r="M57">
-        <v>441.2908848063076</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>0.02992090108452487</v>
+      </c>
+      <c r="N57">
+        <v>441.2908848063074</v>
+      </c>
+      <c r="O57">
+        <v>0.0007461948235326677</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58">
-        <v>184.5996505835528</v>
+        <v>184.5996505835529</v>
       </c>
       <c r="B58">
-        <v>238461.556918322</v>
+        <v>238461.5569183226</v>
       </c>
       <c r="C58">
-        <v>172.9823065430553</v>
+        <v>172.9823065430558</v>
       </c>
       <c r="D58">
-        <v>7769.804755687575</v>
+        <v>7769.804755687573</v>
       </c>
       <c r="E58">
-        <v>9296.42020117368</v>
+        <v>9296.420201173676</v>
       </c>
       <c r="F58">
-        <v>7948.579514651074</v>
+        <v>7948.579514651073</v>
       </c>
       <c r="G58">
-        <v>6.943597955288387</v>
+        <v>6.943597955288358</v>
       </c>
       <c r="H58">
-        <v>20.83718600503475</v>
+        <v>20.83718600503472</v>
       </c>
       <c r="I58">
-        <v>1.164558402963902E-08</v>
+        <v>1.164558402963903E-08</v>
       </c>
       <c r="J58">
-        <v>8.537905248346154E-09</v>
+        <v>8.537905248346159E-09</v>
       </c>
       <c r="K58">
-        <v>7.929454192771568E-05</v>
+        <v>7.929454192771561E-05</v>
       </c>
       <c r="L58">
-        <v>0.03021955606612945</v>
+        <v>0.03021955606612942</v>
       </c>
       <c r="M58">
-        <v>435.1020889003234</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>0.02943198163431837</v>
+      </c>
+      <c r="N58">
+        <v>435.1020889003232</v>
+      </c>
+      <c r="O58">
+        <v>0.0007875744318110531</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59">
         <v>186.7977854930691</v>
       </c>
       <c r="B59">
-        <v>258625.8513542867</v>
+        <v>258625.8513542862</v>
       </c>
       <c r="C59">
-        <v>186.6232790573218</v>
+        <v>186.6232790573213</v>
       </c>
       <c r="D59">
-        <v>7714.918376252333</v>
+        <v>7714.918376252329</v>
       </c>
       <c r="E59">
-        <v>9220.01522297757</v>
+        <v>9220.015222977558</v>
       </c>
       <c r="F59">
-        <v>7867.720304144431</v>
+        <v>7867.720304144417</v>
       </c>
       <c r="G59">
-        <v>6.852799736685117</v>
+        <v>6.852799736685119</v>
       </c>
       <c r="H59">
-        <v>21.19778002110834</v>
+        <v>21.19778002110839</v>
       </c>
       <c r="I59">
-        <v>1.213152568522776E-08</v>
+        <v>1.213152568522781E-08</v>
       </c>
       <c r="J59">
-        <v>8.820224047323538E-09</v>
+        <v>8.820224047323551E-09</v>
       </c>
       <c r="K59">
-        <v>7.732949999443833E-05</v>
+        <v>7.732949999443818E-05</v>
       </c>
       <c r="L59">
-        <v>0.02978119298051896</v>
+        <v>0.02978119298051892</v>
       </c>
       <c r="M59">
-        <v>428.8767174408887</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>0.02895092129468834</v>
+      </c>
+      <c r="N59">
+        <v>428.8767174408883</v>
+      </c>
+      <c r="O59">
+        <v>0.0008302716858305776</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60">
         <v>188.9959204025854</v>
       </c>
       <c r="B60">
-        <v>279973.3093501697</v>
+        <v>279973.3093501699</v>
       </c>
       <c r="C60">
-        <v>201.0435103950869</v>
+        <v>201.043510395087</v>
       </c>
       <c r="D60">
         <v>7659.399647852968</v>
       </c>
       <c r="E60">
-        <v>9141.398880273369</v>
+        <v>9141.398880273366</v>
       </c>
       <c r="F60">
-        <v>7785.351204651446</v>
+        <v>7785.351204651447</v>
       </c>
       <c r="G60">
-        <v>6.762239106900409</v>
+        <v>6.762239106900415</v>
       </c>
       <c r="H60">
-        <v>21.57383774277901</v>
+        <v>21.57383774277898</v>
       </c>
       <c r="I60">
-        <v>1.264873976553413E-08</v>
+        <v>1.264873976553412E-08</v>
       </c>
       <c r="J60">
-        <v>9.109419356434305E-09</v>
+        <v>9.10941935643431E-09</v>
       </c>
       <c r="K60">
-        <v>7.542233042767122E-05</v>
+        <v>7.542233042767121E-05</v>
       </c>
       <c r="L60">
         <v>0.02935169917513109</v>
       </c>
       <c r="M60">
+        <v>0.02847739527480554</v>
+      </c>
+      <c r="N60">
         <v>422.6154942514208</v>
       </c>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="O60">
+        <v>0.0008743039003255474</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61">
         <v>191.1940553121017</v>
       </c>
@@ -2974,10 +3340,10 @@
         <v>302540.0685102611</v>
       </c>
       <c r="C61">
-        <v>216.2749088015551</v>
+        <v>216.2749088015549</v>
       </c>
       <c r="D61">
-        <v>7603.226509756093</v>
+        <v>7603.226509756089</v>
       </c>
       <c r="E61">
         <v>9060.504249866439</v>
@@ -2986,338 +3352,386 @@
         <v>7701.427171081295</v>
       </c>
       <c r="G61">
-        <v>6.671792012540815</v>
+        <v>6.671792012540796</v>
       </c>
       <c r="H61">
-        <v>21.96615897982565</v>
+        <v>21.96615897982562</v>
       </c>
       <c r="I61">
-        <v>1.319991113880434E-08</v>
+        <v>1.319991113880436E-08</v>
       </c>
       <c r="J61">
-        <v>9.405836971676238E-09</v>
+        <v>9.405836971676255E-09</v>
       </c>
       <c r="K61">
-        <v>7.357153018622328E-05</v>
+        <v>7.357153018622315E-05</v>
       </c>
       <c r="L61">
-        <v>0.02893069952251435</v>
+        <v>0.02893069952251432</v>
       </c>
       <c r="M61">
-        <v>416.3190501946551</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>0.02801101045593832</v>
+      </c>
+      <c r="N61">
+        <v>416.3190501946548</v>
+      </c>
+      <c r="O61">
+        <v>0.0009196890665759965</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62">
-        <v>193.3921902216179</v>
+        <v>193.392190221618</v>
       </c>
       <c r="B62">
-        <v>326362.1206000103</v>
+        <v>326362.1206000121</v>
       </c>
       <c r="C62">
-        <v>232.351046826431</v>
+        <v>232.3510468264324</v>
       </c>
       <c r="D62">
-        <v>7546.376042270854</v>
+        <v>7546.37604227085</v>
       </c>
       <c r="E62">
-        <v>8977.261532035567</v>
+        <v>8977.261532035565</v>
       </c>
       <c r="F62">
-        <v>7615.901141516501</v>
+        <v>7615.901141516499</v>
       </c>
       <c r="G62">
-        <v>6.58136411317932</v>
+        <v>6.581364113179299</v>
       </c>
       <c r="H62">
-        <v>22.37571310867096</v>
+        <v>22.37571310867095</v>
       </c>
       <c r="I62">
-        <v>1.378802842394617E-08</v>
+        <v>1.378802842394619E-08</v>
       </c>
       <c r="J62">
-        <v>9.709839317505002E-09</v>
+        <v>9.709839317505022E-09</v>
       </c>
       <c r="K62">
-        <v>7.177559449761869E-05</v>
+        <v>7.177559449761861E-05</v>
       </c>
       <c r="L62">
-        <v>0.02851777045960349</v>
+        <v>0.02851777045960346</v>
       </c>
       <c r="M62">
-        <v>409.9879191884447</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>0.02755132470204184</v>
+      </c>
+      <c r="N62">
+        <v>409.9879191884444</v>
+      </c>
+      <c r="O62">
+        <v>0.0009664457575616169</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63">
-        <v>195.5903251311342</v>
+        <v>195.5903251311343</v>
       </c>
       <c r="B63">
-        <v>351475.3156058772</v>
+        <v>351475.3156058797</v>
       </c>
       <c r="C63">
-        <v>249.3073617284175</v>
+        <v>249.3073617284194</v>
       </c>
       <c r="D63">
-        <v>7488.824316560248</v>
+        <v>7488.824316560246</v>
       </c>
       <c r="E63">
-        <v>8891.59748012166</v>
+        <v>8891.597480121651</v>
       </c>
       <c r="F63">
-        <v>7528.723582309809</v>
+        <v>7528.723582309804</v>
       </c>
       <c r="G63">
-        <v>6.49088778768409</v>
+        <v>6.490887787684094</v>
       </c>
       <c r="H63">
-        <v>22.80365115750039</v>
+        <v>22.80365115750038</v>
       </c>
       <c r="I63">
-        <v>1.441642698829501E-08</v>
+        <v>1.441642698829503E-08</v>
       </c>
       <c r="J63">
-        <v>1.002180602180583E-08</v>
+        <v>1.002180602180584E-08</v>
       </c>
       <c r="K63">
-        <v>7.003299387987884E-05</v>
+        <v>7.003299387987877E-05</v>
       </c>
       <c r="L63">
-        <v>0.02811245758654629</v>
+        <v>0.02811245758654627</v>
       </c>
       <c r="M63">
-        <v>403.6225338650238</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>0.02709786456380105</v>
+      </c>
+      <c r="N63">
+        <v>403.6225338650236</v>
+      </c>
+      <c r="O63">
+        <v>0.00101459302274522</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64">
         <v>197.7884600406505</v>
       </c>
       <c r="B64">
-        <v>377915.3714196817</v>
+        <v>377915.3714196827</v>
       </c>
       <c r="C64">
-        <v>267.1813827194062</v>
+        <v>267.1813827194069</v>
       </c>
       <c r="D64">
-        <v>7430.546233001641</v>
+        <v>7430.546233001637</v>
       </c>
       <c r="E64">
-        <v>8803.434784461691</v>
+        <v>8803.43478446168</v>
       </c>
       <c r="F64">
-        <v>7439.841999472633</v>
+        <v>7439.841999472622</v>
       </c>
       <c r="G64">
-        <v>6.400319397273671</v>
+        <v>6.400319397273683</v>
       </c>
       <c r="H64">
-        <v>23.25132085337249</v>
+        <v>23.25132085337252</v>
       </c>
       <c r="I64">
-        <v>1.50888393544957E-08</v>
+        <v>1.508883935449574E-08</v>
       </c>
       <c r="J64">
-        <v>1.034213473667992E-08</v>
+        <v>1.034213473667994E-08</v>
       </c>
       <c r="K64">
-        <v>6.834215772213081E-05</v>
+        <v>6.83421577221307E-05</v>
       </c>
       <c r="L64">
-        <v>0.02771429142896343</v>
+        <v>0.0277142914289634</v>
       </c>
       <c r="M64">
-        <v>397.2232208017043</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>0.02665014115306101</v>
+      </c>
+      <c r="N64">
+        <v>397.2232208017039</v>
+      </c>
+      <c r="O64">
+        <v>0.001064150275902388</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65">
-        <v>199.9865949501667</v>
+        <v>199.9865949501668</v>
       </c>
       <c r="B65">
-        <v>405717.889452679</v>
+        <v>405717.8894526802</v>
       </c>
       <c r="C65">
-        <v>286.0129892147314</v>
+        <v>286.0129892147322</v>
       </c>
       <c r="D65">
-        <v>7371.515345752638</v>
+        <v>7371.515345752636</v>
       </c>
       <c r="E65">
-        <v>8712.691402753921</v>
+        <v>8712.691402753919</v>
       </c>
       <c r="F65">
-        <v>7349.200409483394</v>
+        <v>7349.20040948339</v>
       </c>
       <c r="G65">
-        <v>6.309636778362194</v>
+        <v>6.309636778362196</v>
       </c>
       <c r="H65">
-        <v>23.72028510245332</v>
+        <v>23.72028510245335</v>
       </c>
       <c r="I65">
-        <v>1.580945453154973E-08</v>
+        <v>1.580945453154978E-08</v>
       </c>
       <c r="J65">
-        <v>1.067124224692022E-08</v>
+        <v>1.067124224692023E-08</v>
       </c>
       <c r="K65">
-        <v>6.670146343760083E-05</v>
+        <v>6.670146343760078E-05</v>
       </c>
       <c r="L65">
-        <v>0.02732280123371286</v>
+        <v>0.02732280123371285</v>
       </c>
       <c r="M65">
-        <v>390.7901952432838</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>0.02620766405420687</v>
+      </c>
+      <c r="N65">
+        <v>390.7901952432833</v>
+      </c>
+      <c r="O65">
+        <v>0.001115137179505974</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66">
-        <v>202.184729859683</v>
+        <v>202.1847298596831</v>
       </c>
       <c r="B66">
-        <v>434918.3765296674</v>
+        <v>434918.3765296691</v>
       </c>
       <c r="C66">
-        <v>305.8447049768504</v>
+        <v>305.8447049768517</v>
       </c>
       <c r="D66">
-        <v>7311.703670835497</v>
+        <v>7311.703670835498</v>
       </c>
       <c r="E66">
-        <v>8619.279828002009</v>
+        <v>8619.279828002005</v>
       </c>
       <c r="F66">
         <v>7256.73876178318</v>
       </c>
       <c r="G66">
-        <v>6.218836943005653</v>
+        <v>6.218836943005674</v>
       </c>
       <c r="H66">
-        <v>24.21234449783537</v>
+        <v>24.21234449783534</v>
       </c>
       <c r="I66">
-        <v>1.658298814645331E-08</v>
+        <v>1.658298814645326E-08</v>
       </c>
       <c r="J66">
         <v>1.100956591209585E-08</v>
       </c>
       <c r="K66">
-        <v>6.510923027085783E-05</v>
+        <v>6.510923027085787E-05</v>
       </c>
       <c r="L66">
         <v>0.02693752674754897</v>
       </c>
       <c r="M66">
-        <v>384.3235552288661</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>0.02576995321833639</v>
+      </c>
+      <c r="N66">
+        <v>384.3235552288665</v>
+      </c>
+      <c r="O66">
+        <v>0.001167573529212588</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67">
-        <v>204.3828647691993</v>
+        <v>204.3828647691994</v>
       </c>
       <c r="B67">
-        <v>465552.2734613407</v>
+        <v>465552.2734613456</v>
       </c>
       <c r="C67">
-        <v>326.7220338862992</v>
+        <v>326.7220338863032</v>
       </c>
       <c r="D67">
-        <v>7251.08147462682</v>
+        <v>7251.081474626815</v>
       </c>
       <c r="E67">
-        <v>8523.106284071369</v>
+        <v>8523.106284071353</v>
       </c>
       <c r="F67">
-        <v>7162.392304195098</v>
+        <v>7162.392304195084</v>
       </c>
       <c r="G67">
-        <v>6.127933968713871</v>
+        <v>6.127933968713876</v>
       </c>
       <c r="H67">
-        <v>24.72956460279248</v>
+        <v>24.72956460279258</v>
       </c>
       <c r="I67">
-        <v>1.741476571338361E-08</v>
+        <v>1.741476571338371E-08</v>
       </c>
       <c r="J67">
-        <v>1.135756549339896E-08</v>
+        <v>1.135756549339898E-08</v>
       </c>
       <c r="K67">
-        <v>6.356371691500641E-05</v>
+        <v>6.356371691500628E-05</v>
       </c>
       <c r="L67">
-        <v>0.02655802799539596</v>
+        <v>0.02655802799539594</v>
       </c>
       <c r="M67">
-        <v>377.8232750278057</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>0.02533654885340033</v>
+      </c>
+      <c r="N67">
+        <v>377.823275027805</v>
+      </c>
+      <c r="O67">
+        <v>0.001221479141995608</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68">
-        <v>206.5809996787156</v>
+        <v>206.5809996787157</v>
       </c>
       <c r="B68">
-        <v>497654.9907430123</v>
+        <v>497654.9907430147</v>
       </c>
       <c r="C68">
-        <v>348.6938440703362</v>
+        <v>348.6938440703381</v>
       </c>
       <c r="D68">
-        <v>7189.617039110793</v>
+        <v>7189.617039110791</v>
       </c>
       <c r="E68">
-        <v>8424.069837567493</v>
+        <v>8424.069837567482</v>
       </c>
       <c r="F68">
-        <v>7066.090881273063</v>
+        <v>7066.090881273054</v>
       </c>
       <c r="G68">
-        <v>6.036957062647271</v>
+        <v>6.036957062647272</v>
       </c>
       <c r="H68">
-        <v>25.27430895029575</v>
+        <v>25.27430895029576</v>
       </c>
       <c r="I68">
-        <v>1.83108219680404E-08</v>
+        <v>1.831082196804045E-08</v>
       </c>
       <c r="J68">
-        <v>1.171572542318167E-08</v>
+        <v>1.171572542318168E-08</v>
       </c>
       <c r="K68">
-        <v>6.206312217198742E-05</v>
+        <v>6.206312217198738E-05</v>
       </c>
       <c r="L68">
-        <v>0.02618389312965989</v>
+        <v>0.02618389312965987</v>
       </c>
       <c r="M68">
-        <v>371.2891977808069</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>0.02490701937822222</v>
+      </c>
+      <c r="N68">
+        <v>371.2891977808064</v>
+      </c>
+      <c r="O68">
+        <v>0.001276873751437649</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69">
         <v>208.7791345882319</v>
       </c>
       <c r="B69">
-        <v>531261.9518777319</v>
+        <v>531261.9518777315</v>
       </c>
       <c r="C69">
-        <v>371.8128082955402</v>
+        <v>371.8128082955397</v>
       </c>
       <c r="D69">
-        <v>7127.276399598005</v>
+        <v>7127.276399598003</v>
       </c>
       <c r="E69">
-        <v>8322.061413170506</v>
+        <v>8322.061413170504</v>
       </c>
       <c r="F69">
         <v>6967.758154114706</v>
       </c>
       <c r="G69">
-        <v>5.945948787933997</v>
+        <v>5.945948787933991</v>
       </c>
       <c r="H69">
-        <v>25.84927894499537</v>
+        <v>25.84927894499533</v>
       </c>
       <c r="I69">
         <v>1.927801995740983E-08</v>
@@ -3326,1325 +3740,1523 @@
         <v>1.208455758385276E-08</v>
       </c>
       <c r="K69">
-        <v>6.060558796813185E-05</v>
+        <v>6.060558796813181E-05</v>
       </c>
       <c r="L69">
-        <v>0.02581474446415168</v>
+        <v>0.02581474446415167</v>
       </c>
       <c r="M69">
-        <v>364.7210272322935</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+        <v>0.02448096755050468</v>
+      </c>
+      <c r="N69">
+        <v>364.7210272322934</v>
+      </c>
+      <c r="O69">
+        <v>0.001333776913646998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70">
-        <v>210.9772694977481</v>
+        <v>210.9772694977482</v>
       </c>
       <c r="B70">
-        <v>566408.6448703156</v>
+        <v>566408.6448703179</v>
       </c>
       <c r="C70">
-        <v>396.1359099222639</v>
+        <v>396.1359099222656</v>
       </c>
       <c r="D70">
-        <v>7064.023049794442</v>
+        <v>7064.02304979444</v>
       </c>
       <c r="E70">
-        <v>8216.962697678535</v>
+        <v>8216.962697678537</v>
       </c>
       <c r="F70">
-        <v>6867.310728409748</v>
+        <v>6867.310728409749</v>
       </c>
       <c r="G70">
-        <v>5.854963442070804</v>
+        <v>5.854963442070825</v>
       </c>
       <c r="H70">
-        <v>26.45756216887759</v>
+        <v>26.45756216887765</v>
       </c>
       <c r="I70">
-        <v>2.032419456705761E-08</v>
+        <v>2.032419456705765E-08</v>
       </c>
       <c r="J70">
-        <v>1.246460467404259E-08</v>
+        <v>1.24646046740426E-08</v>
       </c>
       <c r="K70">
-        <v>5.918920411550266E-05</v>
+        <v>5.918920411550262E-05</v>
       </c>
       <c r="L70">
-        <v>0.02545024283640648</v>
+        <v>0.02545024283640647</v>
       </c>
       <c r="M70">
-        <v>358.1183184283959</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>0.02405803490919691</v>
+      </c>
+      <c r="N70">
+        <v>358.1183184283956</v>
+      </c>
+      <c r="O70">
+        <v>0.001392207927209559</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71">
-        <v>213.1754044072644</v>
+        <v>213.1754044072645</v>
       </c>
       <c r="B71">
-        <v>603130.6824824347</v>
+        <v>603130.6824824354</v>
       </c>
       <c r="C71">
-        <v>421.7250253693305</v>
+        <v>421.7250253693308</v>
       </c>
       <c r="D71">
-        <v>6999.817608084464</v>
+        <v>6999.817608084465</v>
       </c>
       <c r="E71">
-        <v>8108.644915759306</v>
+        <v>8108.644915759302</v>
       </c>
       <c r="F71">
         <v>6764.657175379289</v>
       </c>
       <c r="G71">
-        <v>5.764065579245678</v>
+        <v>5.764065579245685</v>
       </c>
       <c r="H71">
-        <v>27.10269099994947</v>
+        <v>27.10269099994938</v>
       </c>
       <c r="I71">
-        <v>2.145832646767853E-08</v>
+        <v>2.145832646767845E-08</v>
       </c>
       <c r="J71">
         <v>1.285644425435388E-08</v>
       </c>
       <c r="K71">
-        <v>5.781201428538952E-05</v>
+        <v>5.781201428538954E-05</v>
       </c>
       <c r="L71">
-        <v>0.02509009046149118</v>
+        <v>0.0250900904614912</v>
       </c>
       <c r="M71">
-        <v>351.4804672408629</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>0.02363790469094812</v>
+      </c>
+      <c r="N71">
+        <v>351.4804672408633</v>
+      </c>
+      <c r="O71">
+        <v>0.001452185770543082</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72">
-        <v>215.3735393167807</v>
+        <v>215.3735393167808</v>
       </c>
       <c r="B72">
-        <v>641463.871873952</v>
+        <v>641463.8718739585</v>
       </c>
       <c r="C72">
-        <v>448.6475959994693</v>
+        <v>448.6475959994749</v>
       </c>
       <c r="D72">
-        <v>6934.617437608365</v>
+        <v>6934.617437608363</v>
       </c>
       <c r="E72">
-        <v>7996.967457703183</v>
+        <v>7996.967457703174</v>
       </c>
       <c r="F72">
-        <v>6659.696927712937</v>
+        <v>6659.69692771293</v>
       </c>
       <c r="G72">
-        <v>5.673328669983755</v>
+        <v>5.673328669983741</v>
       </c>
       <c r="H72">
-        <v>27.78871398695702</v>
+        <v>27.78871398695705</v>
       </c>
       <c r="I72">
-        <v>2.269075417927995E-08</v>
+        <v>2.269075417928001E-08</v>
       </c>
       <c r="J72">
-        <v>1.326069358348861E-08</v>
+        <v>1.326069358348862E-08</v>
       </c>
       <c r="K72">
-        <v>5.647202273174209E-05</v>
+        <v>5.647202273174205E-05</v>
       </c>
       <c r="L72">
-        <v>0.02473403245004488</v>
+        <v>0.02473403245004486</v>
       </c>
       <c r="M72">
-        <v>344.8066985598597</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+        <v>0.02322030339004623</v>
+      </c>
+      <c r="N72">
+        <v>344.8066985598593</v>
+      </c>
+      <c r="O72">
+        <v>0.001513729059998626</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73">
-        <v>217.5716742262969</v>
+        <v>217.5716742262971</v>
       </c>
       <c r="B73">
-        <v>681444.294276516</v>
+        <v>681444.2942765174</v>
       </c>
       <c r="C73">
-        <v>476.977404672859</v>
+        <v>476.9774046728598</v>
       </c>
       <c r="D73">
-        <v>6868.37621109439</v>
+        <v>6868.376211094384</v>
       </c>
       <c r="E73">
-        <v>7881.776336209861</v>
+        <v>7881.776336209859</v>
       </c>
       <c r="F73">
-        <v>6552.319029534135</v>
+        <v>6552.319029534129</v>
       </c>
       <c r="G73">
-        <v>5.582833892882651</v>
+        <v>5.582833892882652</v>
       </c>
       <c r="H73">
-        <v>28.52028312734265</v>
+        <v>28.52028312734278</v>
       </c>
       <c r="I73">
-        <v>2.403343423820467E-08</v>
+        <v>2.403343423820486E-08</v>
       </c>
       <c r="J73">
-        <v>1.367801537924685E-08</v>
+        <v>1.367801537924687E-08</v>
       </c>
       <c r="K73">
-        <v>5.516720136780748E-05</v>
+        <v>5.516720136780735E-05</v>
       </c>
       <c r="L73">
-        <v>0.02438185716465335</v>
+        <v>0.02438185716465333</v>
       </c>
       <c r="M73">
-        <v>338.0960529771707</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>0.02280500113258178</v>
+      </c>
+      <c r="N73">
+        <v>338.0960529771697</v>
+      </c>
+      <c r="O73">
+        <v>0.001576856032071549</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74">
         <v>219.7698091358133</v>
       </c>
       <c r="B74">
-        <v>723108.3953438035</v>
+        <v>723108.395343799</v>
       </c>
       <c r="C74">
-        <v>506.7954750029413</v>
+        <v>506.7954750029368</v>
       </c>
       <c r="D74">
-        <v>6801.043409342589</v>
+        <v>6801.043409342585</v>
       </c>
       <c r="E74">
-        <v>7762.902445300318</v>
+        <v>7762.902445300338</v>
       </c>
       <c r="F74">
-        <v>6442.400715699338</v>
+        <v>6442.400715699354</v>
       </c>
       <c r="G74">
-        <v>5.492669054394732</v>
+        <v>5.492669054394747</v>
       </c>
       <c r="H74">
-        <v>29.3027611336797</v>
+        <v>29.30276113367979</v>
       </c>
       <c r="I74">
-        <v>2.550026252631403E-08</v>
+        <v>2.550026252631414E-08</v>
       </c>
       <c r="J74">
-        <v>1.410912466941966E-08</v>
+        <v>1.410912466941969E-08</v>
       </c>
       <c r="K74">
-        <v>5.389549685739255E-05</v>
+        <v>5.389549685739249E-05</v>
       </c>
       <c r="L74">
-        <v>0.02403339558300021</v>
+        <v>0.02403339558300018</v>
       </c>
       <c r="M74">
-        <v>331.3473717544159</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <v>0.02239181102983798</v>
+      </c>
+      <c r="N74">
+        <v>331.3473717544155</v>
+      </c>
+      <c r="O74">
+        <v>0.001641584553162202</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75">
-        <v>221.9679440453295</v>
+        <v>221.9679440453297</v>
       </c>
       <c r="B75">
-        <v>766493.0867879867</v>
+        <v>766493.0867879874</v>
       </c>
       <c r="C75">
-        <v>538.1911146752791</v>
+        <v>538.191114675279</v>
       </c>
       <c r="D75">
-        <v>6732.563739614051</v>
+        <v>6732.563739614046</v>
       </c>
       <c r="E75">
         <v>7640.159589663471</v>
       </c>
       <c r="F75">
-        <v>6329.805791211136</v>
+        <v>6329.805791211133</v>
       </c>
       <c r="G75">
-        <v>5.402927633725986</v>
+        <v>5.402927633725934</v>
       </c>
       <c r="H75">
-        <v>30.14235403575439</v>
+        <v>30.14235403575443</v>
       </c>
       <c r="I75">
-        <v>2.710747399419069E-08</v>
+        <v>2.710747399419083E-08</v>
       </c>
       <c r="J75">
-        <v>1.455479693709195E-08</v>
+        <v>1.455479693709199E-08</v>
       </c>
       <c r="K75">
-        <v>5.265483743182985E-05</v>
+        <v>5.265483743182975E-05</v>
       </c>
       <c r="L75">
-        <v>0.0236885198246714</v>
+        <v>0.02368851982467137</v>
       </c>
       <c r="M75">
-        <v>324.5592798368003</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+        <v>0.02198058766418076</v>
+      </c>
+      <c r="N75">
+        <v>324.5592798367999</v>
+      </c>
+      <c r="O75">
+        <v>0.001707932160490611</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76">
-        <v>224.1660789548458</v>
+        <v>224.1660789548459</v>
       </c>
       <c r="B76">
-        <v>811635.8598269655</v>
+        <v>811635.8598269634</v>
       </c>
       <c r="C76">
-        <v>571.2631281612757</v>
+        <v>571.2631281612732</v>
       </c>
       <c r="D76">
-        <v>6662.876456760263</v>
+        <v>6662.876456760258</v>
       </c>
       <c r="E76">
-        <v>7513.342246919448</v>
+        <v>7513.342246919454</v>
       </c>
       <c r="F76">
-        <v>6214.382776008738</v>
+        <v>6214.38277600874</v>
       </c>
       <c r="G76">
-        <v>5.313707951001059</v>
+        <v>5.313707951001057</v>
       </c>
       <c r="H76">
-        <v>31.04627618088269</v>
+        <v>31.04627618088277</v>
       </c>
       <c r="I76">
-        <v>2.887414373247158E-08</v>
+        <v>2.887414373247171E-08</v>
       </c>
       <c r="J76">
-        <v>1.501587781628811E-08</v>
+        <v>1.501587781628814E-08</v>
       </c>
       <c r="K76">
-        <v>5.144313918376154E-05</v>
+        <v>5.144313918376148E-05</v>
       </c>
       <c r="L76">
-        <v>0.02334714098183486</v>
+        <v>0.02334714098183484</v>
       </c>
       <c r="M76">
-        <v>317.7301666291806</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+        <v>0.02157122484377987</v>
+      </c>
+      <c r="N76">
+        <v>317.7301666291801</v>
+      </c>
+      <c r="O76">
+        <v>0.001775916138054972</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77">
         <v>226.3642138643621</v>
       </c>
       <c r="B77">
-        <v>858574.9108101012</v>
+        <v>858574.9108100983</v>
       </c>
       <c r="C77">
-        <v>606.1212288991621</v>
+        <v>606.121228899159</v>
       </c>
       <c r="D77">
-        <v>6591.914565466646</v>
+        <v>6591.914565466647</v>
       </c>
       <c r="E77">
-        <v>7382.223018128984</v>
+        <v>7382.223018129002</v>
       </c>
       <c r="F77">
-        <v>6095.962773640151</v>
+        <v>6095.96277364017</v>
       </c>
       <c r="G77">
-        <v>5.225112457943212</v>
+        <v>5.225112457943224</v>
       </c>
       <c r="H77">
-        <v>32.02295705281124</v>
+        <v>32.02295705281121</v>
       </c>
       <c r="I77">
-        <v>3.082282028025485E-08</v>
+        <v>3.082282028025479E-08</v>
       </c>
       <c r="J77">
-        <v>1.549329466133294E-08</v>
+        <v>1.549329466133293E-08</v>
       </c>
       <c r="K77">
-        <v>5.025831161809897E-05</v>
+        <v>5.025831161809899E-05</v>
       </c>
       <c r="L77">
         <v>0.02300920637273541</v>
       </c>
       <c r="M77">
-        <v>310.8581641946559</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+        <v>0.02116365274075787</v>
+      </c>
+      <c r="N77">
+        <v>310.8581641946561</v>
+      </c>
+      <c r="O77">
+        <v>0.001845553631977546</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78">
-        <v>228.5623487738783</v>
+        <v>228.5623487738785</v>
       </c>
       <c r="B78">
-        <v>907349.2791288549</v>
+        <v>907349.2791288546</v>
       </c>
       <c r="C78">
-        <v>642.8876866707444</v>
+        <v>642.8876866707432</v>
       </c>
       <c r="D78">
-        <v>6519.603876102966</v>
+        <v>6519.603876102962</v>
       </c>
       <c r="E78">
-        <v>7246.549713018908</v>
+        <v>7246.549713018906</v>
       </c>
       <c r="F78">
         <v>5974.357013983734</v>
       </c>
       <c r="G78">
-        <v>5.137247151518062</v>
+        <v>5.13724715151806</v>
       </c>
       <c r="H78">
-        <v>33.08230260885402</v>
+        <v>33.08230260885401</v>
       </c>
       <c r="I78">
-        <v>3.298033319421203E-08</v>
+        <v>3.298033319421207E-08</v>
       </c>
       <c r="J78">
-        <v>1.59880704025344E-08</v>
+        <v>1.598807040253442E-08</v>
       </c>
       <c r="K78">
-        <v>4.909826225747345E-05</v>
+        <v>4.909826225747341E-05</v>
       </c>
       <c r="L78">
-        <v>0.02267469631106299</v>
+        <v>0.02267469631106298</v>
       </c>
       <c r="M78">
-        <v>303.9411224613238</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+        <v>0.02075783450079439</v>
+      </c>
+      <c r="N78">
+        <v>303.9411224613237</v>
+      </c>
+      <c r="O78">
+        <v>0.001916861810268586</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79">
         <v>230.7604836833947</v>
       </c>
       <c r="B79">
-        <v>957998.997107698</v>
+        <v>957998.997107695</v>
       </c>
       <c r="C79">
-        <v>681.6992526505666</v>
+        <v>681.6992526505628</v>
       </c>
       <c r="D79">
-        <v>6445.86187883479</v>
+        <v>6445.861878834789</v>
       </c>
       <c r="E79">
-        <v>7106.042005270288</v>
+        <v>7106.042005270299</v>
       </c>
       <c r="F79">
-        <v>5849.354009811003</v>
+        <v>5849.354009811012</v>
       </c>
       <c r="G79">
-        <v>5.050221112351747</v>
+        <v>5.050221112351743</v>
       </c>
       <c r="H79">
-        <v>34.23602845426632</v>
+        <v>34.23602845426631</v>
       </c>
       <c r="I79">
-        <v>3.537883272850162E-08</v>
+        <v>3.537883272850165E-08</v>
       </c>
       <c r="J79">
-        <v>1.650134022002538E-08</v>
+        <v>1.65013402200254E-08</v>
       </c>
       <c r="K79">
-        <v>4.796090010215882E-05</v>
+        <v>4.796090010215879E-05</v>
       </c>
       <c r="L79">
         <v>0.02234362045332004</v>
       </c>
       <c r="M79">
-        <v>296.9765809234315</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
+        <v>0.02035376238026978</v>
+      </c>
+      <c r="N79">
+        <v>296.9765809234314</v>
+      </c>
+      <c r="O79">
+        <v>0.001989858073050265</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80">
-        <v>232.9586185929109</v>
+        <v>232.9586185929111</v>
       </c>
       <c r="B80">
-        <v>1010565.250946623</v>
+        <v>1010565.250946622</v>
       </c>
       <c r="C80">
-        <v>722.7094126666935</v>
+        <v>722.7094126666912</v>
       </c>
       <c r="D80">
-        <v>6370.59639007532</v>
+        <v>6370.596390075311</v>
       </c>
       <c r="E80">
-        <v>6960.387578979634</v>
+        <v>6960.387578979626</v>
       </c>
       <c r="F80">
-        <v>5720.716253890452</v>
+        <v>5720.716253890439</v>
       </c>
       <c r="G80">
-        <v>4.964146171353184</v>
+        <v>4.964146171353169</v>
       </c>
       <c r="H80">
-        <v>35.49808876995667</v>
+        <v>35.49808876995686</v>
       </c>
       <c r="I80">
-        <v>3.805714228485949E-08</v>
+        <v>3.805714228485987E-08</v>
       </c>
       <c r="J80">
-        <v>1.703437172868842E-08</v>
+        <v>1.703437172868848E-08</v>
       </c>
       <c r="K80">
-        <v>4.684413772975048E-05</v>
+        <v>4.684413772975036E-05</v>
       </c>
       <c r="L80">
-        <v>0.02201601374930165</v>
+        <v>0.02201601374930161</v>
       </c>
       <c r="M80">
-        <v>289.9617361879932</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
+        <v>0.01995145342855148</v>
+      </c>
+      <c r="N80">
+        <v>289.9617361879922</v>
+      </c>
+      <c r="O80">
+        <v>0.00206456032075013</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81">
-        <v>235.1567535024272</v>
+        <v>235.1567535024273</v>
       </c>
       <c r="B81">
-        <v>1065090.550863703</v>
+        <v>1065090.550863704</v>
       </c>
       <c r="C81">
-        <v>766.0910288956608</v>
+        <v>766.091028895661</v>
       </c>
       <c r="D81">
-        <v>6293.703910903982</v>
+        <v>6293.703910903979</v>
       </c>
       <c r="E81">
-        <v>6809.237668695614</v>
+        <v>6809.237668695613</v>
       </c>
       <c r="F81">
-        <v>5588.176366489262</v>
+        <v>5588.176366489261</v>
       </c>
       <c r="G81">
-        <v>4.879136709959056</v>
+        <v>4.879136709959038</v>
       </c>
       <c r="H81">
-        <v>36.88523447259432</v>
+        <v>36.88523447259433</v>
       </c>
       <c r="I81">
-        <v>4.106253766318356E-08</v>
+        <v>4.106253766318366E-08</v>
       </c>
       <c r="J81">
-        <v>1.758858958739803E-08</v>
+        <v>1.758858958739806E-08</v>
       </c>
       <c r="K81">
-        <v>4.57458917831707E-05</v>
+        <v>4.574589178317067E-05</v>
       </c>
       <c r="L81">
-        <v>0.02169193197600926</v>
+        <v>0.02169193197600924</v>
       </c>
       <c r="M81">
-        <v>282.8934045310868</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>0.01955094468612139</v>
+      </c>
+      <c r="N81">
+        <v>282.8934045310867</v>
+      </c>
+      <c r="O81">
+        <v>0.002140987289887846</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82">
-        <v>237.3548884119435</v>
+        <v>237.3548884119436</v>
       </c>
       <c r="B82">
-        <v>1121618.907242533</v>
+        <v>1121618.907242522</v>
       </c>
       <c r="C82">
-        <v>812.0394419821254</v>
+        <v>812.0394419821121</v>
       </c>
       <c r="D82">
-        <v>6215.067617043255</v>
+        <v>6215.067617043248</v>
       </c>
       <c r="E82">
-        <v>6652.201870015469</v>
+        <v>6652.201870015494</v>
       </c>
       <c r="F82">
-        <v>5451.432580883692</v>
+        <v>5451.432580883704</v>
       </c>
       <c r="G82">
-        <v>4.79530960194911</v>
+        <v>4.795309601949111</v>
       </c>
       <c r="H82">
-        <v>38.41774817505362</v>
+        <v>38.41774817505381</v>
       </c>
       <c r="I82">
-        <v>4.445311677190503E-08</v>
+        <v>4.445311677190543E-08</v>
       </c>
       <c r="J82">
-        <v>1.816560575123138E-08</v>
+        <v>1.816560575123142E-08</v>
       </c>
       <c r="K82">
-        <v>4.466408152951887E-05</v>
+        <v>4.466408152951877E-05</v>
       </c>
       <c r="L82">
-        <v>0.0213714467801773</v>
+        <v>0.02137144678017728</v>
       </c>
       <c r="M82">
-        <v>275.7679783645455</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <v>0.01915228781105088</v>
+      </c>
+      <c r="N82">
+        <v>275.7679783645447</v>
+      </c>
+      <c r="O82">
+        <v>0.002219158969126398</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83">
-        <v>239.5530233214597</v>
+        <v>239.5530233214599</v>
       </c>
       <c r="B83">
-        <v>1180196.007667876</v>
+        <v>1180196.007667872</v>
       </c>
       <c r="C83">
-        <v>860.7761202304837</v>
+        <v>860.7761202304778</v>
       </c>
       <c r="D83">
-        <v>6134.554871779748</v>
+        <v>6134.55487177974</v>
       </c>
       <c r="E83">
-        <v>6488.842061737689</v>
+        <v>6488.842061737702</v>
       </c>
       <c r="F83">
-        <v>5310.143424049915</v>
+        <v>5310.143424049923</v>
       </c>
       <c r="G83">
-        <v>4.712784308067833</v>
+        <v>4.712784308067842</v>
       </c>
       <c r="H83">
-        <v>40.12042464312041</v>
+        <v>40.12042464312069</v>
       </c>
       <c r="I83">
-        <v>4.83009985976626E-08</v>
+        <v>4.830099859766312E-08</v>
       </c>
       <c r="J83">
-        <v>1.87672570150799E-08</v>
+        <v>1.876725701507995E-08</v>
       </c>
       <c r="K83">
-        <v>4.359662506537879E-05</v>
+        <v>4.359662506537869E-05</v>
       </c>
       <c r="L83">
-        <v>0.02105464008538448</v>
+        <v>0.02105464008538444</v>
       </c>
       <c r="M83">
-        <v>268.5813751349299</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+        <v>0.01875554297271352</v>
+      </c>
+      <c r="N83">
+        <v>268.581375134929</v>
+      </c>
+      <c r="O83">
+        <v>0.002299097112670918</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84">
-        <v>241.751158230976</v>
+        <v>241.7511582309761</v>
       </c>
       <c r="B84">
-        <v>1240869.38702375</v>
+        <v>1240869.387023748</v>
       </c>
       <c r="C84">
-        <v>912.5529615645646</v>
+        <v>912.5529615645607</v>
       </c>
       <c r="D84">
-        <v>6052.01411283964</v>
+        <v>6052.014112839634</v>
       </c>
       <c r="E84">
-        <v>6318.66522726275</v>
+        <v>6318.665227262751</v>
       </c>
       <c r="F84">
-        <v>5163.921406241288</v>
+        <v>5163.921406241285</v>
       </c>
       <c r="G84">
-        <v>4.631683139084763</v>
+        <v>4.631683139084765</v>
       </c>
       <c r="H84">
-        <v>42.02389775093063</v>
+        <v>42.02389775093077</v>
       </c>
       <c r="I84">
-        <v>5.269670625533632E-08</v>
+        <v>5.269670625533668E-08</v>
       </c>
       <c r="J84">
-        <v>1.939565211192811E-08</v>
+        <v>1.939565211192815E-08</v>
       </c>
       <c r="K84">
-        <v>4.254143257816505E-05</v>
+        <v>4.254143257816498E-05</v>
       </c>
       <c r="L84">
-        <v>0.02074159763113036</v>
+        <v>0.02074159763113034</v>
       </c>
       <c r="M84">
-        <v>261.3289766213962</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+        <v>0.01836077175658558</v>
+      </c>
+      <c r="N84">
+        <v>261.3289766213956</v>
+      </c>
+      <c r="O84">
+        <v>0.00238082587454476</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85">
-        <v>243.9492931404923</v>
+        <v>243.9492931404924</v>
       </c>
       <c r="B85">
-        <v>1303688.579071336</v>
+        <v>1303688.57907135</v>
       </c>
       <c r="C85">
-        <v>967.6573803681671</v>
+        <v>967.6573803681836</v>
       </c>
       <c r="D85">
-        <v>5967.270905362026</v>
+        <v>5967.270905362015</v>
       </c>
       <c r="E85">
-        <v>6141.11488024562</v>
+        <v>6141.114880245581</v>
       </c>
       <c r="F85">
-        <v>5012.325468006952</v>
+        <v>5012.325468006921</v>
       </c>
       <c r="G85">
-        <v>4.552131708965415</v>
+        <v>4.552131708965417</v>
       </c>
       <c r="H85">
-        <v>44.16646540884241</v>
+        <v>44.16646540884278</v>
       </c>
       <c r="I85">
-        <v>5.775527200695388E-08</v>
+        <v>5.775527200695463E-08</v>
       </c>
       <c r="J85">
-        <v>2.005323152481137E-08</v>
+        <v>2.005323152481144E-08</v>
       </c>
       <c r="K85">
-        <v>4.149639581851749E-05</v>
+        <v>4.149639581851737E-05</v>
       </c>
       <c r="L85">
-        <v>0.02043240129560294</v>
+        <v>0.0204324012956029</v>
       </c>
       <c r="M85">
-        <v>254.0055557688496</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+        <v>0.01796802869879452</v>
+      </c>
+      <c r="N85">
+        <v>254.0055557688486</v>
+      </c>
+      <c r="O85">
+        <v>0.002464372596808386</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86">
-        <v>246.1474280500086</v>
+        <v>246.1474280500087</v>
       </c>
       <c r="B86">
-        <v>1368705.232816726</v>
+        <v>1368705.232816734</v>
       </c>
       <c r="C86">
-        <v>1026.41835112637</v>
+        <v>1026.41835112638</v>
       </c>
       <c r="D86">
-        <v>5880.122865565298</v>
+        <v>5880.122865565296</v>
       </c>
       <c r="E86">
-        <v>5955.560665643941</v>
+        <v>5955.56066564392</v>
       </c>
       <c r="F86">
-        <v>4854.851830609524</v>
+        <v>4854.85183060951</v>
       </c>
       <c r="G86">
-        <v>4.474259608313757</v>
+        <v>4.474259608313747</v>
       </c>
       <c r="H86">
-        <v>46.59664468469204</v>
+        <v>46.59664468469209</v>
       </c>
       <c r="I86">
-        <v>6.362489801392804E-08</v>
+        <v>6.36248980139282E-08</v>
       </c>
       <c r="J86">
-        <v>2.074284450297337E-08</v>
+        <v>2.074284450297339E-08</v>
       </c>
       <c r="K86">
-        <v>4.045937254777911E-05</v>
+        <v>4.04593725477791E-05</v>
       </c>
       <c r="L86">
-        <v>0.020127119699928</v>
+        <v>0.02012711969992799</v>
       </c>
       <c r="M86">
-        <v>246.6051869280687</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+        <v>0.01757735090081511</v>
+      </c>
+      <c r="N86">
+        <v>246.6051869280685</v>
+      </c>
+      <c r="O86">
+        <v>0.002549768799112888</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87">
-        <v>248.3455629595249</v>
+        <v>248.345562959525</v>
       </c>
       <c r="B87">
         <v>1435973.170206029</v>
       </c>
       <c r="C87">
-        <v>1089.213646227119</v>
+        <v>1089.213646227118</v>
       </c>
       <c r="D87">
-        <v>5790.333026611922</v>
+        <v>5790.333026611915</v>
       </c>
       <c r="E87">
-        <v>5761.285482575067</v>
+        <v>5761.285482575069</v>
       </c>
       <c r="F87">
-        <v>4690.922726634596</v>
+        <v>4690.922726634595</v>
       </c>
       <c r="G87">
-        <v>4.398201340548712</v>
+        <v>4.398201340548701</v>
       </c>
       <c r="H87">
-        <v>49.37682199612036</v>
+        <v>49.37682199612065</v>
       </c>
       <c r="I87">
-        <v>7.049949775760415E-08</v>
+        <v>7.049949775760485E-08</v>
       </c>
       <c r="J87">
-        <v>2.146784979669588E-08</v>
+        <v>2.146784979669593E-08</v>
       </c>
       <c r="K87">
-        <v>3.942816411761563E-05</v>
+        <v>3.942816411761553E-05</v>
       </c>
       <c r="L87">
-        <v>0.0198257963826332</v>
+        <v>0.01982579638263317</v>
       </c>
       <c r="M87">
-        <v>239.1211334101621</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
+        <v>0.01718874494373013</v>
+      </c>
+      <c r="N87">
+        <v>239.1211334101613</v>
+      </c>
+      <c r="O87">
+        <v>0.002637051438903044</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88">
-        <v>250.5436978690411</v>
+        <v>250.5436978690413</v>
       </c>
       <c r="B88">
-        <v>1505548.353015929</v>
+        <v>1505548.35301591</v>
       </c>
       <c r="C88">
-        <v>1156.478621162044</v>
+        <v>1156.478621162012</v>
       </c>
       <c r="D88">
-        <v>5697.621010910702</v>
+        <v>5697.62101091068</v>
       </c>
       <c r="E88">
-        <v>5557.469087044933</v>
+        <v>5557.469087044988</v>
       </c>
       <c r="F88">
-        <v>4519.872197596702</v>
+        <v>4519.872197596732</v>
       </c>
       <c r="G88">
-        <v>4.324097581550568</v>
+        <v>4.324097581550572</v>
       </c>
       <c r="H88">
-        <v>52.5885877693945</v>
+        <v>52.58858776939567</v>
       </c>
       <c r="I88">
-        <v>7.863728329061551E-08</v>
+        <v>7.863728329061835E-08</v>
       </c>
       <c r="J88">
-        <v>2.223224977911172E-08</v>
+        <v>2.223224977911189E-08</v>
       </c>
       <c r="K88">
-        <v>3.84004833806488E-05</v>
+        <v>3.840048338064853E-05</v>
       </c>
       <c r="L88">
-        <v>0.01952843454283263</v>
+        <v>0.01952843454283254</v>
       </c>
       <c r="M88">
-        <v>231.5457031525201</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+        <v>0.01680216999698265</v>
+      </c>
+      <c r="N88">
+        <v>231.5457031525176</v>
+      </c>
+      <c r="O88">
+        <v>0.002726264545849888</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89">
-        <v>252.7418327785574</v>
+        <v>252.7418327785575</v>
       </c>
       <c r="B89">
-        <v>1577488.716264823</v>
+        <v>1577488.716264818</v>
       </c>
       <c r="C89">
-        <v>1228.717116564128</v>
+        <v>1228.717116564118</v>
       </c>
       <c r="D89">
-        <v>5601.651041510086</v>
+        <v>5601.651041510079</v>
       </c>
       <c r="E89">
-        <v>5343.166446592484</v>
+        <v>5343.166446592491</v>
       </c>
       <c r="F89">
-        <v>4340.927632710233</v>
+        <v>4340.927632710234</v>
       </c>
       <c r="G89">
-        <v>4.252096851447428</v>
+        <v>4.25209685144741</v>
       </c>
       <c r="H89">
-        <v>56.3407379403175</v>
+        <v>56.34073794031773</v>
       </c>
       <c r="I89">
-        <v>8.838905044858458E-08</v>
+        <v>8.838905044858527E-08</v>
       </c>
       <c r="J89">
-        <v>2.304087267635196E-08</v>
+        <v>2.3040872676352E-08</v>
       </c>
       <c r="K89">
-        <v>3.737390858537725E-05</v>
+        <v>3.737390858537719E-05</v>
       </c>
       <c r="L89">
-        <v>0.01923497693724872</v>
+        <v>0.01923497693724869</v>
       </c>
       <c r="M89">
-        <v>223.8700582675721</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
+        <v>0.01641751554828649</v>
+      </c>
+      <c r="N89">
+        <v>223.8700582675716</v>
+      </c>
+      <c r="O89">
+        <v>0.002817461388962204</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90">
-        <v>254.9399676880737</v>
+        <v>254.9399676880738</v>
       </c>
       <c r="B90">
-        <v>1651853.813571838</v>
+        <v>1651853.813571844</v>
       </c>
       <c r="C90">
-        <v>1306.515462459801</v>
+        <v>1306.515462459809</v>
       </c>
       <c r="D90">
-        <v>5502.015278235417</v>
+        <v>5502.015278235421</v>
       </c>
       <c r="E90">
-        <v>5117.277886542209</v>
+        <v>5117.277886542201</v>
       </c>
       <c r="F90">
         <v>4153.18479520393</v>
       </c>
       <c r="G90">
-        <v>4.182357731003075</v>
+        <v>4.182357731003066</v>
       </c>
       <c r="H90">
-        <v>60.7816393887911</v>
+        <v>60.78163938879076</v>
       </c>
       <c r="I90">
-        <v>1.002425494836937E-07</v>
+        <v>1.00242549483693E-07</v>
       </c>
       <c r="J90">
-        <v>2.389962598271715E-08</v>
+        <v>2.389962598271714E-08</v>
       </c>
       <c r="K90">
-        <v>3.634581634693401E-05</v>
+        <v>3.634581634693405E-05</v>
       </c>
       <c r="L90">
-        <v>0.01894527890766853</v>
+        <v>0.01894527890766854</v>
       </c>
       <c r="M90">
-        <v>216.0839559177259</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+        <v>0.01603457148244131</v>
+      </c>
+      <c r="N90">
+        <v>216.0839559177263</v>
+      </c>
+      <c r="O90">
+        <v>0.00291070742522723</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91">
-        <v>257.13810259759</v>
+        <v>257.1381025975901</v>
       </c>
       <c r="B91">
-        <v>1728704.208567821</v>
+        <v>1728704.208567816</v>
       </c>
       <c r="C91">
-        <v>1390.561384203966</v>
+        <v>1390.561384203951</v>
       </c>
       <c r="D91">
-        <v>5398.210030463581</v>
+        <v>5398.210030463569</v>
       </c>
       <c r="E91">
-        <v>4878.505820609289</v>
+        <v>4878.50582060931</v>
       </c>
       <c r="F91">
-        <v>3955.572371248639</v>
+        <v>3955.572371248652</v>
       </c>
       <c r="G91">
-        <v>4.115051825516475</v>
+        <v>4.115051825516444</v>
       </c>
       <c r="H91">
-        <v>66.11901480047081</v>
+        <v>66.11901480047165</v>
       </c>
       <c r="I91">
-        <v>1.148945893400307E-07</v>
+        <v>1.14894589340033E-07</v>
       </c>
       <c r="J91">
-        <v>2.481585845433321E-08</v>
+        <v>2.481585845433332E-08</v>
       </c>
       <c r="K91">
-        <v>3.531328240816224E-05</v>
+        <v>3.531328240816213E-05</v>
       </c>
       <c r="L91">
-        <v>0.01865907158337615</v>
+        <v>0.01865907158337612</v>
       </c>
       <c r="M91">
-        <v>208.1753838410659</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+        <v>0.01565298715105001</v>
+      </c>
+      <c r="N91">
+        <v>208.1753838410648</v>
+      </c>
+      <c r="O91">
+        <v>0.003006084432326109</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92">
         <v>259.3362375071063</v>
       </c>
       <c r="B92">
-        <v>1808100.538536262</v>
+        <v>1808100.538536272</v>
       </c>
       <c r="C92">
-        <v>1481.671216512758</v>
+        <v>1481.671216512778</v>
       </c>
       <c r="D92">
-        <v>5289.60073668905</v>
+        <v>5289.600736689056</v>
       </c>
       <c r="E92">
-        <v>4625.288697437644</v>
+        <v>4625.28869743761</v>
       </c>
       <c r="F92">
-        <v>3746.798862672696</v>
+        <v>3746.798862672672</v>
       </c>
       <c r="G92">
-        <v>4.050367795295619</v>
+        <v>4.050367795295615</v>
       </c>
       <c r="H92">
-        <v>72.65292037628153</v>
+        <v>72.65292037628085</v>
       </c>
       <c r="I92">
-        <v>1.333731803697553E-07</v>
+        <v>1.333731803697535E-07</v>
       </c>
       <c r="J92">
-        <v>2.579889365915902E-08</v>
+        <v>2.579889365915896E-08</v>
       </c>
       <c r="K92">
-        <v>3.427293111216654E-05</v>
+        <v>3.427293111216659E-05</v>
       </c>
       <c r="L92">
-        <v>0.01837591078884719</v>
+        <v>0.01837591078884721</v>
       </c>
       <c r="M92">
-        <v>200.1300288909131</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+        <v>0.0152722142887048</v>
+      </c>
+      <c r="N92">
+        <v>200.1300288909137</v>
+      </c>
+      <c r="O92">
+        <v>0.003103696500142408</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93">
-        <v>261.5343724166225</v>
+        <v>261.5343724166227</v>
       </c>
       <c r="B93">
-        <v>1890102.178598525</v>
+        <v>1890102.178598563</v>
       </c>
       <c r="C93">
-        <v>1580.832040798986</v>
+        <v>1580.83204079907</v>
       </c>
       <c r="D93">
-        <v>5175.36849988911</v>
+        <v>5175.368499889131</v>
       </c>
       <c r="E93">
-        <v>4355.694909020957</v>
+        <v>4355.694909020825</v>
       </c>
       <c r="F93">
-        <v>3525.268469919276</v>
+        <v>3525.268469919194</v>
       </c>
       <c r="G93">
-        <v>3.98851696831028</v>
+        <v>3.988516968310269</v>
       </c>
       <c r="H93">
-        <v>80.83346771050725</v>
+        <v>80.8334677105037</v>
       </c>
       <c r="I93">
-        <v>1.572549701293228E-07</v>
+        <v>1.572549701293139E-07</v>
       </c>
       <c r="J93">
-        <v>2.68608460621727E-08</v>
+        <v>2.686084606217254E-08</v>
       </c>
       <c r="K93">
-        <v>3.322069998455113E-05</v>
+        <v>3.322069998455133E-05</v>
       </c>
       <c r="L93">
-        <v>0.01809510454926935</v>
+        <v>0.0180951045492694</v>
       </c>
       <c r="M93">
-        <v>191.9304710615893</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+        <v>0.01489142548900691</v>
+      </c>
+      <c r="N93">
+        <v>191.9304710615918</v>
+      </c>
+      <c r="O93">
+        <v>0.003203679060262496</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94">
-        <v>263.7325073261388</v>
+        <v>263.7325073261389</v>
       </c>
       <c r="B94">
-        <v>1974765.45457137</v>
+        <v>1974765.45457136</v>
       </c>
       <c r="C94">
-        <v>1689.271898195789</v>
+        <v>1689.271898195755</v>
       </c>
       <c r="D94">
-        <v>5054.424828114338</v>
+        <v>5054.42482811432</v>
       </c>
       <c r="E94">
-        <v>4067.243913782138</v>
+        <v>4067.243913782174</v>
       </c>
       <c r="F94">
-        <v>3288.940334710002</v>
+        <v>3288.940334710018</v>
       </c>
       <c r="G94">
-        <v>3.929741392895344</v>
+        <v>3.929741392895333</v>
       </c>
       <c r="H94">
-        <v>91.3680532979499</v>
+        <v>91.368053297953</v>
       </c>
       <c r="I94">
-        <v>1.890764278971829E-07</v>
+        <v>1.890764278971909E-07</v>
       </c>
       <c r="J94">
-        <v>2.80179261709509E-08</v>
+        <v>2.801792617095105E-08</v>
       </c>
       <c r="K94">
-        <v>3.215145708350548E-05</v>
+        <v>3.215145708350533E-05</v>
       </c>
       <c r="L94">
-        <v>0.01781560703870424</v>
+        <v>0.0178156070387042</v>
       </c>
       <c r="M94">
-        <v>183.5549055835863</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
+        <v>0.01450939391381192</v>
+      </c>
+      <c r="N94">
+        <v>183.5549055835847</v>
+      </c>
+      <c r="O94">
+        <v>0.003306213124892273</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95">
-        <v>265.9306422356551</v>
+        <v>265.9306422356552</v>
       </c>
       <c r="B95">
-        <v>2062141.400183883</v>
+        <v>2062141.400183923</v>
       </c>
       <c r="C95">
-        <v>1808.585108826314</v>
+        <v>1808.585108826425</v>
       </c>
       <c r="D95">
-        <v>4925.268165237998</v>
+        <v>4925.268165238033</v>
       </c>
       <c r="E95">
-        <v>3756.589549401251</v>
+        <v>3756.589549401107</v>
       </c>
       <c r="F95">
-        <v>3035.079724690403</v>
+        <v>3035.079724690312</v>
       </c>
       <c r="G95">
-        <v>3.874325805574139</v>
+        <v>3.874325805574125</v>
       </c>
       <c r="H95">
-        <v>105.435902713238</v>
+        <v>105.4359027132306</v>
       </c>
       <c r="I95">
-        <v>2.331722372500475E-07</v>
+        <v>2.331722372500265E-07</v>
       </c>
       <c r="J95">
-        <v>2.92926457148432E-08</v>
+        <v>2.92926457148429E-08</v>
       </c>
       <c r="K95">
-        <v>3.105834759813046E-05</v>
+        <v>3.105834759813077E-05</v>
       </c>
       <c r="L95">
-        <v>0.01753585604025831</v>
+        <v>0.01753585604025839</v>
       </c>
       <c r="M95">
-        <v>174.9750056954361</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
+        <v>0.01412430703502768</v>
+      </c>
+      <c r="N95">
+        <v>174.9750056954394</v>
+      </c>
+      <c r="O95">
+        <v>0.003411549005230715</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96">
-        <v>268.1287771451713</v>
+        <v>268.1287771451715</v>
       </c>
       <c r="B96">
-        <v>2152273.135967876</v>
+        <v>2152273.135967927</v>
       </c>
       <c r="C96">
-        <v>1940.971436203297</v>
+        <v>1940.971436203461</v>
       </c>
       <c r="D96">
-        <v>4785.725335991831</v>
+        <v>4785.725335991884</v>
       </c>
       <c r="E96">
-        <v>3418.927000816875</v>
+        <v>3418.927000816672</v>
       </c>
       <c r="F96">
-        <v>2759.790787967213</v>
+        <v>2759.790787967083</v>
       </c>
       <c r="G96">
-        <v>3.82261615090892</v>
+        <v>3.822616150908883</v>
       </c>
       <c r="H96">
-        <v>125.1602946375086</v>
+        <v>125.1602946374943</v>
       </c>
       <c r="I96">
-        <v>2.975584605976075E-07</v>
+        <v>2.975584605975647E-07</v>
       </c>
       <c r="J96">
-        <v>3.071781309853947E-08</v>
+        <v>3.071781309853902E-08</v>
       </c>
       <c r="K96">
-        <v>2.993160329082781E-05</v>
+        <v>2.993160329082825E-05</v>
       </c>
       <c r="L96">
-        <v>0.01725350488773766</v>
+        <v>0.01725350488773777</v>
       </c>
       <c r="M96">
-        <v>166.1520952701133</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>0.01373345623831884</v>
+      </c>
+      <c r="N96">
+        <v>166.1520952701178</v>
+      </c>
+      <c r="O96">
+        <v>0.003520048649418934</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97">
         <v>270.3269120546877</v>
       </c>
       <c r="B97">
-        <v>2245193.058899928</v>
+        <v>2245193.058899934</v>
       </c>
       <c r="C97">
-        <v>2089.729277710194</v>
+        <v>2089.729277710204</v>
       </c>
       <c r="D97">
-        <v>4632.441032308916</v>
+        <v>4632.44103230891</v>
       </c>
       <c r="E97">
-        <v>3046.794941700711</v>
+        <v>3046.794941700698</v>
       </c>
       <c r="F97">
-        <v>2457.06810111804</v>
+        <v>2457.068101118034</v>
       </c>
       <c r="G97">
-        <v>3.775049587592245</v>
+        <v>3.775049587592231</v>
       </c>
       <c r="H97">
-        <v>154.7897582781616</v>
+        <v>154.7897582781618</v>
       </c>
       <c r="I97">
-        <v>3.987482774623499E-07</v>
+        <v>3.987482774623517E-07</v>
       </c>
       <c r="J97">
-        <v>3.234447474059536E-08</v>
+        <v>3.234447474059542E-08</v>
       </c>
       <c r="K97">
-        <v>2.875617209410942E-05</v>
+        <v>2.875617209410936E-05</v>
       </c>
       <c r="L97">
-        <v>0.01696492682114993</v>
+        <v>0.01696492682114992</v>
       </c>
       <c r="M97">
-        <v>157.0296256588506</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>0.01333265833246304</v>
+      </c>
+      <c r="N97">
+        <v>157.0296256588504</v>
+      </c>
+      <c r="O97">
+        <v>0.003632268488686877</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98">
-        <v>272.5250469642039</v>
+        <v>272.5250469642041</v>
       </c>
       <c r="B98">
-        <v>2340920.151338398</v>
+        <v>2340920.151338416</v>
       </c>
       <c r="C98">
-        <v>2260.391341371253</v>
+        <v>2260.391341371324</v>
       </c>
       <c r="D98">
-        <v>4459.731240755322</v>
+        <v>4459.731240755345</v>
       </c>
       <c r="E98">
-        <v>2627.361031526771</v>
+        <v>2627.361031526689</v>
       </c>
       <c r="F98">
-        <v>2116.636603349159</v>
+        <v>2116.636603349104</v>
       </c>
       <c r="G98">
-        <v>3.732205621420245</v>
+        <v>3.732205621420237</v>
       </c>
       <c r="H98">
-        <v>204.2436865824471</v>
+        <v>204.243686582432</v>
       </c>
       <c r="I98">
-        <v>5.765684910810979E-07</v>
+        <v>5.765684910810472E-07</v>
       </c>
       <c r="J98">
-        <v>3.425988985846537E-08</v>
+        <v>3.425988985846514E-08</v>
       </c>
       <c r="K98">
-        <v>2.750635839693831E-05</v>
+        <v>2.750635839693849E-05</v>
       </c>
       <c r="L98">
-        <v>0.01666412596054913</v>
+        <v>0.01666412596054917</v>
       </c>
       <c r="M98">
-        <v>147.5162671703316</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>0.01291498196152593</v>
+      </c>
+      <c r="N98">
+        <v>147.5162671703334</v>
+      </c>
+      <c r="O98">
+        <v>0.003749143999023235</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99">
-        <v>274.7231818737202</v>
+        <v>274.7231818737203</v>
       </c>
       <c r="B99">
-        <v>2439457.801334556</v>
+        <v>2439457.80133467</v>
       </c>
       <c r="C99">
-        <v>2463.864108781049</v>
+        <v>2463.864108781852</v>
       </c>
       <c r="D99">
-        <v>4256.443511819979</v>
+        <v>4256.443511820602</v>
       </c>
       <c r="E99">
-        <v>2134.983410922282</v>
+        <v>2134.983410921833</v>
       </c>
       <c r="F99">
-        <v>1718.010264691845</v>
+        <v>1718.010264691624</v>
       </c>
       <c r="G99">
-        <v>3.694896638168145</v>
+        <v>3.69489663816804</v>
       </c>
       <c r="H99">
-        <v>303.3025697335446</v>
+        <v>303.3025697329164</v>
       </c>
       <c r="I99">
-        <v>9.551891797404201E-07</v>
+        <v>9.551891797381054E-07</v>
       </c>
       <c r="J99">
-        <v>3.663719344554002E-08</v>
+        <v>3.663719344553322E-08</v>
       </c>
       <c r="K99">
-        <v>2.613105620076404E-05</v>
+        <v>2.613105620076831E-05</v>
       </c>
       <c r="L99">
-        <v>0.01633965067087942</v>
+        <v>0.01633965067088037</v>
       </c>
       <c r="M99">
-        <v>137.4391608665706</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>0.01246715892198029</v>
+      </c>
+      <c r="N99">
+        <v>137.4391608666078</v>
+      </c>
+      <c r="O99">
+        <v>0.003872491748900079</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100">
-        <v>276.9213167832365</v>
+        <v>276.9213167832366</v>
       </c>
       <c r="B100">
-        <v>2540792.524505264</v>
+        <v>2540792.524505309</v>
       </c>
       <c r="C100">
-        <v>2728.777428116894</v>
+        <v>2728.777428117411</v>
       </c>
       <c r="D100">
-        <v>3993.620005644785</v>
+        <v>3993.620005645321</v>
       </c>
       <c r="E100">
-        <v>1502.026647014319</v>
+        <v>1502.026647014219</v>
       </c>
       <c r="F100">
-        <v>1207.129326659256</v>
+        <v>1207.129326659246</v>
       </c>
       <c r="G100">
-        <v>3.664301208882109</v>
+        <v>3.664301208882025</v>
       </c>
       <c r="H100">
-        <v>600.9678333245573</v>
+        <v>600.9678333230166</v>
       </c>
       <c r="I100">
-        <v>2.186781557380846E-06</v>
+        <v>2.186781557374562E-06</v>
       </c>
       <c r="J100">
-        <v>3.993261231072549E-08</v>
+        <v>3.993261231071897E-08</v>
       </c>
       <c r="K100">
-        <v>2.449535893876005E-05</v>
+        <v>2.449535893876336E-05</v>
       </c>
       <c r="L100">
-        <v>0.01596137185796109</v>
+        <v>0.01596137185796181</v>
       </c>
       <c r="M100">
-        <v>126.3562536080162</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>0.01195439878821506</v>
+      </c>
+      <c r="N100">
+        <v>126.3562536080418</v>
+      </c>
+      <c r="O100">
+        <v>0.004006973069746749</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101">
-        <v>279.1194516927528</v>
+        <v>279.1194516927529</v>
       </c>
       <c r="B101">
-        <v>2644893.861122203</v>
+        <v>2644893.861124522</v>
       </c>
       <c r="C101">
-        <v>3340.548884912663</v>
+        <v>3340.548904373412</v>
       </c>
       <c r="D101">
-        <v>3385.457576815718</v>
+        <v>3385.457596190231</v>
       </c>
       <c r="E101">
-        <v>53.18163537991895</v>
+        <v>53.18163512595924</v>
       </c>
       <c r="F101">
-        <v>42.6788752652776</v>
+        <v>42.67887515277338</v>
       </c>
       <c r="G101">
-        <v>3.636913991536498</v>
+        <v>3.636913991993254</v>
       </c>
       <c r="H101">
-        <v>473598.0443093289</v>
+        <v>473596.8176733637</v>
       </c>
       <c r="I101">
-        <v>0.002445341354699148</v>
+        <v>0.002445334992907478</v>
       </c>
       <c r="J101">
-        <v>4.878587494969702E-08</v>
+        <v>4.878587463417219E-08</v>
       </c>
       <c r="K101">
-        <v>2.123736655340462E-05</v>
+        <v>2.123736664730953E-05</v>
       </c>
       <c r="L101">
-        <v>0.01518018606607496</v>
+        <v>0.01518018609154027</v>
       </c>
       <c r="M101">
-        <v>109.7262921103008</v>
+        <v>0.01098208770112329</v>
+      </c>
+      <c r="N101">
+        <v>109.7262924477181</v>
+      </c>
+      <c r="O101">
+        <v>0.004198098390416978</v>
       </c>
     </row>
   </sheetData>
